--- a/Analisi_trimestrale.xlsx
+++ b/Analisi_trimestrale.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\Manutenzione\Dati\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\Manutenzione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E837B2DB-AEE2-40AB-B371-55AC16C6C54A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E12E68-A1DA-4645-B21F-B058110CC677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{B31A7043-A28F-428C-9880-F98EDD055E1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B31A7043-A28F-428C-9880-F98EDD055E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="Da fare" sheetId="7" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="80">
   <si>
     <t>Data fermi</t>
   </si>
@@ -228,16 +228,10 @@
     <t>NOTE</t>
   </si>
   <si>
-    <t>termo</t>
-  </si>
-  <si>
     <t>PEZZO</t>
   </si>
   <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>genrale</t>
   </si>
   <si>
     <t>POSACOPERCHI</t>
@@ -247,9 +241,6 @@
   </si>
   <si>
     <t>PROVA DI TENUTA</t>
-  </si>
-  <si>
-    <t>MANIPOLATORE CARICO CASSA COMP</t>
   </si>
   <si>
     <t>ELBAK 1</t>
@@ -264,12 +255,6 @@
     <t>ELBAK 2</t>
   </si>
   <si>
-    <t>VERTICALIZZATORE ELBAK1</t>
-  </si>
-  <si>
-    <t>MANIPOLATORE BUFFER POLMONE</t>
-  </si>
-  <si>
     <t>2° PROVA CORTO CIRCUITO</t>
   </si>
   <si>
@@ -279,28 +264,13 @@
     <t>SALDAPOLARI</t>
   </si>
   <si>
-    <t>BOXING SINISTRO</t>
-  </si>
-  <si>
     <t>MANIPOLATORE BOXING</t>
-  </si>
-  <si>
-    <t>CATENE BOXING</t>
   </si>
   <si>
     <t>POSAINSERTI</t>
   </si>
   <si>
-    <t>TRASLATORE CASSETTE</t>
-  </si>
-  <si>
     <t>BARRA DI TRAZIONE N°2</t>
-  </si>
-  <si>
-    <t>MARCATURA DATA E CODICE</t>
-  </si>
-  <si>
-    <t>ALLINEA GRUPPI</t>
   </si>
   <si>
     <t>STAMPO COS</t>
@@ -309,67 +279,16 @@
     <t>CASSA COMPRESSIONE</t>
   </si>
   <si>
-    <t>MANIPOLATORE 1</t>
+    <t xml:space="preserve">BOXING </t>
   </si>
   <si>
-    <t>MANIPOLATORE 2</t>
+    <t>ELBAK1</t>
   </si>
   <si>
-    <t>MANIPOLATORE 3</t>
+    <t>PAUSA CAFFE</t>
   </si>
   <si>
-    <t>TERMOSALDATURA</t>
-  </si>
-  <si>
-    <t>ASCENSORE CARICO COS</t>
-  </si>
-  <si>
-    <t>RESINATURA INFERIORE MONOBLOCC</t>
-  </si>
-  <si>
-    <t>PARANCO</t>
-  </si>
-  <si>
-    <t>CESTELLO INSERIMENTO CASSETTE</t>
-  </si>
-  <si>
-    <t>TRANCIATURA MONOBLOCCHI</t>
-  </si>
-  <si>
-    <t>RESINATURA SUPERIORE</t>
-  </si>
-  <si>
-    <t>POMPA PIOMBO</t>
-  </si>
-  <si>
-    <t>TERMOSALDATRICE 1</t>
-  </si>
-  <si>
-    <t>TEKMAX</t>
-  </si>
-  <si>
-    <t>NASTRO TRASPORTO BATTERIE</t>
-  </si>
-  <si>
-    <t>ROBOT PALLETTIZZATORE</t>
-  </si>
-  <si>
-    <t>SPAZZOLATURA POLARI</t>
-  </si>
-  <si>
-    <t>TERMOSALDATRICE 2</t>
-  </si>
-  <si>
-    <t>MARCATORE LASER</t>
-  </si>
-  <si>
-    <t>MARCATURA A CALDO 2</t>
-  </si>
-  <si>
-    <t>POSA DISCHETTI</t>
-  </si>
-  <si>
-    <t>1°PROVA CONTROLLO CORTI</t>
+    <t>SPAZZOLA BANDIERE</t>
   </si>
 </sst>
 </file>
@@ -401,12 +320,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -436,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -450,6 +375,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6972,16 +6898,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6507D801-A314-4B52-812D-7199C09062F3}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="4" width="16" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -6992,7 +6919,7 @@
         <v>57</v>
       </c>
       <c r="C1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" t="s">
         <v>10</v>
@@ -7006,110 +6933,124 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="D2">
+        <v>1.795918367346939</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>4.4000000000000004</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4">
+        <v>14.66666666666667</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>61</v>
-      </c>
-      <c r="D9">
-        <v>2.2222222222222219</v>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D6">
+        <v>2.2051282051282048</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7">
+        <v>5.0588235294117654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8">
+        <v>9.5555555555555554</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2</v>
+      </c>
       <c r="B10" t="s">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>84</v>
+        <v>60</v>
       </c>
       <c r="D10">
-        <v>3.4782608695652182</v>
+        <v>2.606060606060606</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>42</v>
+        <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="D11">
-        <v>8</v>
+        <v>7.166666666666667</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12">
+        <v>28.666666666666671</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>4</v>
       </c>
-      <c r="B13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13">
-        <v>2.925925925925926</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14">
-        <v>4.1578947368421053</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>6</v>
-      </c>
-      <c r="C15" t="s">
-        <v>84</v>
-      </c>
-      <c r="D15">
-        <v>26.333333333333329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>6</v>
       </c>
     </row>
@@ -9716,10 +9657,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E26600-95D7-42AC-BF51-5E0BCDD423B6}">
-  <dimension ref="A1:H102"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B102" sqref="B84:B102"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G97" sqref="C43:G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9785,7 +9726,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>12</v>
@@ -9808,7 +9749,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4">
         <v>5</v>
@@ -9831,7 +9772,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D5">
         <v>7</v>
@@ -9854,7 +9795,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="D6">
         <v>4</v>
@@ -9877,7 +9818,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D7">
         <v>9</v>
@@ -9900,19 +9841,19 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="D8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F8">
-        <v>3.4090909090909088E-2</v>
+        <v>2.2727272727272731E-2</v>
       </c>
       <c r="G8">
-        <v>29.333333333333339</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -9923,19 +9864,19 @@
         <v>1</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
-        <v>87</v>
+        <v>104</v>
       </c>
       <c r="F9">
-        <v>1.136363636363636E-2</v>
+        <v>3.4090909090909088E-2</v>
       </c>
       <c r="G9">
-        <v>88</v>
+        <v>29.333333333333339</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -9946,13 +9887,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D10">
         <v>1</v>
       </c>
       <c r="E10">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F10">
         <v>1.136363636363636E-2</v>
@@ -9992,7 +9933,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12">
         <v>4</v>
@@ -10038,7 +9979,7 @@
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
       <c r="D14">
         <v>3</v>
@@ -10061,7 +10002,7 @@
         <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="D15">
         <v>2</v>
@@ -10084,13 +10025,13 @@
         <v>1</v>
       </c>
       <c r="C16" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D16">
         <v>1</v>
       </c>
       <c r="E16">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F16">
         <v>1.136363636363636E-2</v>
@@ -10107,7 +10048,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D17">
         <v>2</v>
@@ -10153,7 +10094,7 @@
         <v>1</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -10176,7 +10117,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -10222,19 +10163,19 @@
         <v>2</v>
       </c>
       <c r="C22" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="E22">
-        <v>1052</v>
+        <v>1459</v>
       </c>
       <c r="F22">
-        <v>0.23255813953488369</v>
+        <v>0.45348837209302317</v>
       </c>
       <c r="G22">
-        <v>4.3</v>
+        <v>2.2051282051282048</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
@@ -10245,19 +10186,19 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>76</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E23">
-        <v>675</v>
+        <v>1052</v>
       </c>
       <c r="F23">
-        <v>0.29069767441860472</v>
+        <v>0.23255813953488369</v>
       </c>
       <c r="G23">
-        <v>3.44</v>
+        <v>4.3</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
@@ -10291,19 +10232,19 @@
         <v>2</v>
       </c>
       <c r="C25" t="s">
-        <v>77</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25">
-        <v>451</v>
+        <v>403</v>
       </c>
       <c r="F25">
-        <v>0.12790697674418611</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="G25">
-        <v>7.8181818181818166</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -10314,19 +10255,19 @@
         <v>2</v>
       </c>
       <c r="C26" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26">
-        <v>403</v>
+        <v>298</v>
       </c>
       <c r="F26">
-        <v>0.1162790697674419</v>
+        <v>0.12790697674418611</v>
       </c>
       <c r="G26">
-        <v>8.6</v>
+        <v>7.8181818181818166</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
@@ -10337,19 +10278,19 @@
         <v>2</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="F27">
-        <v>0.12790697674418611</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="G27">
-        <v>7.8181818181818166</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
@@ -10360,19 +10301,19 @@
         <v>2</v>
       </c>
       <c r="C28" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E28">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F28">
-        <v>0.1162790697674419</v>
+        <v>0.10465116279069769</v>
       </c>
       <c r="G28">
-        <v>8.6</v>
+        <v>9.5555555555555554</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
@@ -10383,19 +10324,19 @@
         <v>2</v>
       </c>
       <c r="C29" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="D29">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E29">
-        <v>247</v>
+        <v>212</v>
       </c>
       <c r="F29">
-        <v>0.10465116279069769</v>
+        <v>4.6511627906976737E-2</v>
       </c>
       <c r="G29">
-        <v>9.5555555555555554</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -10406,19 +10347,19 @@
         <v>2</v>
       </c>
       <c r="C30" t="s">
-        <v>78</v>
+        <v>21</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E30">
-        <v>237</v>
+        <v>191</v>
       </c>
       <c r="F30">
-        <v>6.9767441860465115E-2</v>
+        <v>9.3023255813953487E-2</v>
       </c>
       <c r="G30">
-        <v>14.33333333333333</v>
+        <v>10.75</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
@@ -10429,19 +10370,19 @@
         <v>2</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E31">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="F31">
-        <v>4.6511627906976737E-2</v>
+        <v>6.9767441860465115E-2</v>
       </c>
       <c r="G31">
-        <v>21.5</v>
+        <v>14.33333333333333</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
@@ -10452,19 +10393,19 @@
         <v>2</v>
       </c>
       <c r="C32" t="s">
-        <v>21</v>
+        <v>72</v>
       </c>
       <c r="D32">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E32">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="F32">
-        <v>9.3023255813953487E-2</v>
+        <v>4.6511627906976737E-2</v>
       </c>
       <c r="G32">
-        <v>10.75</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
@@ -10475,19 +10416,19 @@
         <v>2</v>
       </c>
       <c r="C33" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E33">
-        <v>190</v>
+        <v>147</v>
       </c>
       <c r="F33">
-        <v>6.9767441860465115E-2</v>
+        <v>3.4883720930232558E-2</v>
       </c>
       <c r="G33">
-        <v>14.33333333333333</v>
+        <v>28.666666666666671</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -10498,19 +10439,19 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>79</v>
+        <v>51</v>
       </c>
       <c r="D34">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E34">
-        <v>167</v>
+        <v>111</v>
       </c>
       <c r="F34">
-        <v>4.6511627906976737E-2</v>
+        <v>5.8139534883720929E-2</v>
       </c>
       <c r="G34">
-        <v>21.5</v>
+        <v>17.2</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
@@ -10521,13 +10462,13 @@
         <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
       <c r="D35">
         <v>3</v>
       </c>
       <c r="E35">
-        <v>147</v>
+        <v>74</v>
       </c>
       <c r="F35">
         <v>3.4883720930232558E-2</v>
@@ -10544,19 +10485,19 @@
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="F36">
-        <v>1.1627906976744189E-2</v>
+        <v>2.3255813953488368E-2</v>
       </c>
       <c r="G36">
-        <v>86</v>
+        <v>43</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
@@ -10567,19 +10508,19 @@
         <v>2</v>
       </c>
       <c r="C37" t="s">
-        <v>81</v>
+        <v>29</v>
       </c>
       <c r="D37">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E37">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="F37">
-        <v>3.4883720930232558E-2</v>
+        <v>2.3255813953488368E-2</v>
       </c>
       <c r="G37">
-        <v>28.666666666666671</v>
+        <v>43</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -10590,19 +10531,19 @@
         <v>2</v>
       </c>
       <c r="C38" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="D38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E38">
-        <v>71</v>
+        <v>33</v>
       </c>
       <c r="F38">
-        <v>3.4883720930232558E-2</v>
+        <v>2.3255813953488368E-2</v>
       </c>
       <c r="G38">
-        <v>28.666666666666671</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -10613,19 +10554,19 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E39">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F39">
-        <v>2.3255813953488368E-2</v>
+        <v>1.1627906976744189E-2</v>
       </c>
       <c r="G39">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
@@ -10636,13 +10577,13 @@
         <v>2</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
       <c r="E40">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="F40">
         <v>2.3255813953488368E-2</v>
@@ -10659,19 +10600,19 @@
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D41">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E41">
-        <v>33</v>
+        <v>10</v>
       </c>
       <c r="F41">
-        <v>2.3255813953488368E-2</v>
+        <v>1.1627906976744189E-2</v>
       </c>
       <c r="G41">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -10682,13 +10623,13 @@
         <v>2</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <v>1.1627906976744189E-2</v>
@@ -10702,22 +10643,7 @@
         <v>38</v>
       </c>
       <c r="B43">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D43">
-        <v>1</v>
-      </c>
-      <c r="E43">
-        <v>24</v>
-      </c>
-      <c r="F43">
-        <v>1.1627906976744189E-2</v>
-      </c>
-      <c r="G43">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
@@ -10725,22 +10651,7 @@
         <v>38</v>
       </c>
       <c r="B44">
-        <v>2</v>
-      </c>
-      <c r="C44" t="s">
-        <v>22</v>
-      </c>
-      <c r="D44">
-        <v>2</v>
-      </c>
-      <c r="E44">
-        <v>21</v>
-      </c>
-      <c r="F44">
-        <v>2.3255813953488368E-2</v>
-      </c>
-      <c r="G44">
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
@@ -10748,22 +10659,7 @@
         <v>38</v>
       </c>
       <c r="B45">
-        <v>2</v>
-      </c>
-      <c r="C45" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45">
-        <v>1</v>
-      </c>
-      <c r="E45">
-        <v>20</v>
-      </c>
-      <c r="F45">
-        <v>1.1627906976744189E-2</v>
-      </c>
-      <c r="G45">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
@@ -10771,22 +10667,7 @@
         <v>38</v>
       </c>
       <c r="B46">
-        <v>2</v>
-      </c>
-      <c r="C46" t="s">
-        <v>23</v>
-      </c>
-      <c r="D46">
-        <v>1</v>
-      </c>
-      <c r="E46">
-        <v>10</v>
-      </c>
-      <c r="F46">
-        <v>1.1627906976744189E-2</v>
-      </c>
-      <c r="G46">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -10794,22 +10675,7 @@
         <v>38</v>
       </c>
       <c r="B47">
-        <v>2</v>
-      </c>
-      <c r="C47" t="s">
-        <v>28</v>
-      </c>
-      <c r="D47">
-        <v>1</v>
-      </c>
-      <c r="E47">
-        <v>10</v>
-      </c>
-      <c r="F47">
-        <v>1.1627906976744189E-2</v>
-      </c>
-      <c r="G47">
-        <v>86</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
@@ -10819,1202 +10685,337 @@
       <c r="B48">
         <v>3</v>
       </c>
-      <c r="C48" t="s">
-        <v>6</v>
-      </c>
-      <c r="D48">
-        <v>36</v>
-      </c>
-      <c r="E48">
-        <v>1546</v>
-      </c>
-      <c r="F48">
-        <v>0.45</v>
-      </c>
-      <c r="G48">
-        <v>2.2222222222222219</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>38</v>
       </c>
       <c r="B49">
         <v>3</v>
       </c>
-      <c r="C49" t="s">
-        <v>42</v>
-      </c>
-      <c r="D49">
-        <v>10</v>
-      </c>
-      <c r="E49">
-        <v>409</v>
-      </c>
-      <c r="F49">
-        <v>0.125</v>
-      </c>
-      <c r="G49">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>38</v>
       </c>
       <c r="B50">
         <v>3</v>
       </c>
-      <c r="C50" t="s">
-        <v>43</v>
-      </c>
-      <c r="D50">
-        <v>9</v>
-      </c>
-      <c r="E50">
-        <v>368</v>
-      </c>
-      <c r="F50">
-        <v>0.1125</v>
-      </c>
-      <c r="G50">
-        <v>8.8888888888888893</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>38</v>
       </c>
       <c r="B51">
         <v>3</v>
       </c>
-      <c r="C51" t="s">
-        <v>44</v>
-      </c>
-      <c r="D51">
-        <v>13</v>
-      </c>
-      <c r="E51">
-        <v>278</v>
-      </c>
-      <c r="F51">
-        <v>0.16250000000000001</v>
-      </c>
-      <c r="G51">
-        <v>6.1538461538461533</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>38</v>
       </c>
       <c r="B52">
         <v>3</v>
       </c>
-      <c r="C52" t="s">
-        <v>17</v>
-      </c>
-      <c r="D52">
-        <v>13</v>
-      </c>
-      <c r="E52">
-        <v>258</v>
-      </c>
-      <c r="F52">
-        <v>0.16250000000000001</v>
-      </c>
-      <c r="G52">
-        <v>6.1538461538461533</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>38</v>
       </c>
       <c r="B53">
         <v>3</v>
       </c>
-      <c r="C53" t="s">
-        <v>45</v>
-      </c>
-      <c r="D53">
-        <v>6</v>
-      </c>
-      <c r="E53">
-        <v>258</v>
-      </c>
-      <c r="F53">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="G53">
-        <v>13.33333333333333</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>38</v>
       </c>
       <c r="B54">
         <v>3</v>
       </c>
-      <c r="C54" t="s">
-        <v>46</v>
-      </c>
-      <c r="D54">
-        <v>7</v>
-      </c>
-      <c r="E54">
-        <v>222</v>
-      </c>
-      <c r="F54">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="G54">
-        <v>11.428571428571431</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>38</v>
       </c>
       <c r="B55">
         <v>3</v>
       </c>
-      <c r="C55" t="s">
-        <v>47</v>
-      </c>
-      <c r="D55">
-        <v>4</v>
-      </c>
-      <c r="E55">
-        <v>165</v>
-      </c>
-      <c r="F55">
-        <v>0.05</v>
-      </c>
-      <c r="G55">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>38</v>
       </c>
       <c r="B56">
         <v>3</v>
       </c>
-      <c r="C56" t="s">
-        <v>48</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>81</v>
-      </c>
-      <c r="F56">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G56">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>38</v>
       </c>
       <c r="B57">
         <v>3</v>
       </c>
-      <c r="C57" t="s">
-        <v>49</v>
-      </c>
-      <c r="D57">
-        <v>2</v>
-      </c>
-      <c r="E57">
-        <v>68</v>
-      </c>
-      <c r="F57">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G57">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>38</v>
       </c>
       <c r="B58">
         <v>3</v>
       </c>
-      <c r="C58" t="s">
-        <v>50</v>
-      </c>
-      <c r="D58">
-        <v>2</v>
-      </c>
-      <c r="E58">
-        <v>39</v>
-      </c>
-      <c r="F58">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G58">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>38</v>
       </c>
       <c r="B59">
         <v>3</v>
       </c>
-      <c r="C59" t="s">
-        <v>51</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>35</v>
-      </c>
-      <c r="F59">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G59">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>38</v>
       </c>
       <c r="B60">
         <v>3</v>
       </c>
-      <c r="C60" t="s">
-        <v>21</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>34</v>
-      </c>
-      <c r="F60">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G60">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>38</v>
       </c>
       <c r="B61">
-        <v>3</v>
-      </c>
-      <c r="C61" t="s">
-        <v>52</v>
-      </c>
-      <c r="D61">
-        <v>1</v>
-      </c>
-      <c r="E61">
-        <v>16</v>
-      </c>
-      <c r="F61">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G61">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>38</v>
       </c>
       <c r="B62">
-        <v>3</v>
-      </c>
-      <c r="C62" t="s">
-        <v>53</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
-      </c>
-      <c r="E62">
-        <v>14</v>
-      </c>
-      <c r="F62">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G62">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>38</v>
       </c>
       <c r="B63">
-        <v>3</v>
-      </c>
-      <c r="C63" t="s">
-        <v>54</v>
-      </c>
-      <c r="D63">
-        <v>1</v>
-      </c>
-      <c r="E63">
-        <v>12</v>
-      </c>
-      <c r="F63">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G63">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>38</v>
       </c>
       <c r="B64">
-        <v>3</v>
-      </c>
-      <c r="C64" t="s">
-        <v>28</v>
-      </c>
-      <c r="D64">
-        <v>1</v>
-      </c>
-      <c r="E64">
-        <v>12</v>
-      </c>
-      <c r="F64">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G64">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>38</v>
       </c>
       <c r="B65">
-        <v>3</v>
-      </c>
-      <c r="C65" t="s">
-        <v>55</v>
-      </c>
-      <c r="D65">
-        <v>1</v>
-      </c>
-      <c r="E65">
-        <v>12</v>
-      </c>
-      <c r="F65">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G65">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>38</v>
       </c>
       <c r="B66">
         <v>4</v>
       </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66">
-        <v>27</v>
-      </c>
-      <c r="E66">
-        <v>867</v>
-      </c>
-      <c r="F66">
-        <v>0.34177215189873422</v>
-      </c>
-      <c r="G66">
-        <v>2.925925925925926</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>38</v>
       </c>
       <c r="B67">
         <v>4</v>
       </c>
-      <c r="C67" t="s">
-        <v>86</v>
-      </c>
-      <c r="D67">
-        <v>9</v>
-      </c>
-      <c r="E67">
-        <v>647</v>
-      </c>
-      <c r="F67">
-        <v>0.1139240506329114</v>
-      </c>
-      <c r="G67">
-        <v>8.7777777777777786</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>38</v>
       </c>
       <c r="B68">
         <v>4</v>
       </c>
-      <c r="C68" t="s">
-        <v>87</v>
-      </c>
-      <c r="D68">
-        <v>8</v>
-      </c>
-      <c r="E68">
-        <v>409</v>
-      </c>
-      <c r="F68">
-        <v>0.1012658227848101</v>
-      </c>
-      <c r="G68">
-        <v>9.875</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>38</v>
       </c>
       <c r="B69">
         <v>4</v>
       </c>
-      <c r="C69" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69">
-        <v>4</v>
-      </c>
-      <c r="E69">
-        <v>163</v>
-      </c>
-      <c r="F69">
-        <v>5.0632911392405063E-2</v>
-      </c>
-      <c r="G69">
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>38</v>
       </c>
       <c r="B70">
         <v>4</v>
       </c>
-      <c r="C70" t="s">
-        <v>26</v>
-      </c>
-      <c r="D70">
-        <v>4</v>
-      </c>
-      <c r="E70">
-        <v>92</v>
-      </c>
-      <c r="F70">
-        <v>5.0632911392405063E-2</v>
-      </c>
-      <c r="G70">
-        <v>19.75</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>38</v>
       </c>
       <c r="B71">
         <v>4</v>
       </c>
-      <c r="C71" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71">
-        <v>3</v>
-      </c>
-      <c r="E71">
-        <v>76</v>
-      </c>
-      <c r="F71">
-        <v>3.7974683544303799E-2</v>
-      </c>
-      <c r="G71">
-        <v>26.333333333333329</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>38</v>
       </c>
       <c r="B72">
         <v>4</v>
       </c>
-      <c r="C72" t="s">
-        <v>89</v>
-      </c>
-      <c r="D72">
-        <v>2</v>
-      </c>
-      <c r="E72">
-        <v>61</v>
-      </c>
-      <c r="F72">
-        <v>2.5316455696202531E-2</v>
-      </c>
-      <c r="G72">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>38</v>
       </c>
       <c r="B73">
         <v>4</v>
       </c>
-      <c r="C73" t="s">
-        <v>90</v>
-      </c>
-      <c r="D73">
-        <v>1</v>
-      </c>
-      <c r="E73">
-        <v>32</v>
-      </c>
-      <c r="F73">
-        <v>1.2658227848101271E-2</v>
-      </c>
-      <c r="G73">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>38</v>
       </c>
       <c r="B74">
         <v>4</v>
       </c>
-      <c r="C74" t="s">
-        <v>91</v>
-      </c>
-      <c r="D74">
-        <v>1</v>
-      </c>
-      <c r="E74">
-        <v>32</v>
-      </c>
-      <c r="F74">
-        <v>1.2658227848101271E-2</v>
-      </c>
-      <c r="G74">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>38</v>
       </c>
       <c r="B75">
         <v>4</v>
       </c>
-      <c r="C75" t="s">
-        <v>17</v>
-      </c>
-      <c r="D75">
-        <v>2</v>
-      </c>
-      <c r="E75">
-        <v>31</v>
-      </c>
-      <c r="F75">
-        <v>2.5316455696202531E-2</v>
-      </c>
-      <c r="G75">
-        <v>39.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>38</v>
       </c>
       <c r="B76">
         <v>4</v>
       </c>
-      <c r="C76" t="s">
-        <v>92</v>
-      </c>
-      <c r="D76">
-        <v>1</v>
-      </c>
-      <c r="E76">
-        <v>27</v>
-      </c>
-      <c r="F76">
-        <v>1.2658227848101271E-2</v>
-      </c>
-      <c r="G76">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>38</v>
       </c>
       <c r="B77">
         <v>4</v>
       </c>
-      <c r="C77" t="s">
-        <v>93</v>
-      </c>
-      <c r="D77">
-        <v>1</v>
-      </c>
-      <c r="E77">
-        <v>15</v>
-      </c>
-      <c r="F77">
-        <v>1.2658227848101271E-2</v>
-      </c>
-      <c r="G77">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>38</v>
-      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B78">
-        <v>4</v>
-      </c>
-      <c r="C78" t="s">
-        <v>94</v>
-      </c>
-      <c r="D78">
-        <v>1</v>
-      </c>
-      <c r="E78">
-        <v>14</v>
-      </c>
-      <c r="F78">
-        <v>1.2658227848101271E-2</v>
-      </c>
-      <c r="G78">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>38</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B79">
-        <v>4</v>
-      </c>
-      <c r="C79" t="s">
-        <v>16</v>
-      </c>
-      <c r="D79">
-        <v>1</v>
-      </c>
-      <c r="E79">
-        <v>13</v>
-      </c>
-      <c r="F79">
-        <v>1.2658227848101271E-2</v>
-      </c>
-      <c r="G79">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>38</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B80">
-        <v>4</v>
-      </c>
-      <c r="C80" t="s">
-        <v>70</v>
-      </c>
-      <c r="D80">
-        <v>1</v>
-      </c>
-      <c r="E80">
-        <v>13</v>
-      </c>
-      <c r="F80">
-        <v>1.2658227848101271E-2</v>
-      </c>
-      <c r="G80">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>38</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81">
-        <v>4</v>
-      </c>
-      <c r="C81" t="s">
-        <v>20</v>
-      </c>
-      <c r="D81">
-        <v>1</v>
-      </c>
-      <c r="E81">
-        <v>11</v>
-      </c>
-      <c r="F81">
-        <v>1.2658227848101271E-2</v>
-      </c>
-      <c r="G81">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>38</v>
-      </c>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82">
-        <v>4</v>
-      </c>
-      <c r="C82" t="s">
-        <v>95</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-      <c r="E82">
-        <v>10</v>
-      </c>
-      <c r="F82">
-        <v>1.2658227848101271E-2</v>
-      </c>
-      <c r="G82">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83">
         <v>6</v>
       </c>
-      <c r="C83" t="s">
-        <v>48</v>
-      </c>
-      <c r="D83">
-        <v>16</v>
-      </c>
-      <c r="E83">
-        <v>1023</v>
-      </c>
-      <c r="F83">
-        <v>0.2</v>
-      </c>
-      <c r="G83">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84">
         <v>6</v>
       </c>
-      <c r="C84" t="s">
-        <v>97</v>
-      </c>
-      <c r="D84">
-        <v>35</v>
-      </c>
-      <c r="E84">
-        <v>772</v>
-      </c>
-      <c r="F84">
-        <v>0.4375</v>
-      </c>
-      <c r="G84">
-        <v>2.285714285714286</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85">
         <v>6</v>
       </c>
-      <c r="C85" t="s">
-        <v>6</v>
-      </c>
-      <c r="D85">
-        <v>11</v>
-      </c>
-      <c r="E85">
-        <v>691</v>
-      </c>
-      <c r="F85">
-        <v>0.13750000000000001</v>
-      </c>
-      <c r="G85">
-        <v>7.2727272727272716</v>
-      </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86">
         <v>6</v>
       </c>
-      <c r="C86" t="s">
-        <v>98</v>
-      </c>
-      <c r="D86">
-        <v>7</v>
-      </c>
-      <c r="E86">
-        <v>533</v>
-      </c>
-      <c r="F86">
-        <v>8.7499999999999994E-2</v>
-      </c>
-      <c r="G86">
-        <v>11.428571428571431</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87">
         <v>6</v>
       </c>
-      <c r="C87" t="s">
-        <v>21</v>
-      </c>
-      <c r="D87">
-        <v>4</v>
-      </c>
-      <c r="E87">
-        <v>328</v>
-      </c>
-      <c r="F87">
-        <v>0.05</v>
-      </c>
-      <c r="G87">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88">
         <v>6</v>
       </c>
-      <c r="C88" t="s">
-        <v>99</v>
-      </c>
-      <c r="D88">
-        <v>5</v>
-      </c>
-      <c r="E88">
-        <v>192</v>
-      </c>
-      <c r="F88">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G88">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89">
         <v>6</v>
       </c>
-      <c r="C89" t="s">
-        <v>100</v>
-      </c>
-      <c r="D89">
-        <v>3</v>
-      </c>
-      <c r="E89">
-        <v>96</v>
-      </c>
-      <c r="F89">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G89">
-        <v>26.666666666666671</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90">
         <v>6</v>
       </c>
-      <c r="C90" t="s">
-        <v>50</v>
-      </c>
-      <c r="D90">
-        <v>3</v>
-      </c>
-      <c r="E90">
-        <v>76</v>
-      </c>
-      <c r="F90">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G90">
-        <v>26.666666666666671</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91">
         <v>6</v>
       </c>
-      <c r="C91" t="s">
-        <v>45</v>
-      </c>
-      <c r="D91">
-        <v>2</v>
-      </c>
-      <c r="E91">
-        <v>74</v>
-      </c>
-      <c r="F91">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G91">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92">
         <v>6</v>
       </c>
-      <c r="C92" t="s">
-        <v>101</v>
-      </c>
-      <c r="D92">
-        <v>2</v>
-      </c>
-      <c r="E92">
-        <v>48</v>
-      </c>
-      <c r="F92">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="G92">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93">
         <v>6</v>
       </c>
-      <c r="C93" t="s">
-        <v>102</v>
-      </c>
-      <c r="D93">
-        <v>3</v>
-      </c>
-      <c r="E93">
-        <v>40</v>
-      </c>
-      <c r="F93">
-        <v>3.7499999999999999E-2</v>
-      </c>
-      <c r="G93">
-        <v>26.666666666666671</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94">
         <v>6</v>
       </c>
-      <c r="C94" t="s">
-        <v>103</v>
-      </c>
-      <c r="D94">
-        <v>1</v>
-      </c>
-      <c r="E94">
-        <v>38</v>
-      </c>
-      <c r="F94">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G94">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95">
         <v>6</v>
       </c>
-      <c r="C95" t="s">
-        <v>17</v>
-      </c>
-      <c r="D95">
-        <v>1</v>
-      </c>
-      <c r="E95">
-        <v>29</v>
-      </c>
-      <c r="F95">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G95">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96">
         <v>6</v>
       </c>
-      <c r="C96" t="s">
-        <v>85</v>
-      </c>
-      <c r="D96">
-        <v>1</v>
-      </c>
-      <c r="E96">
-        <v>13</v>
-      </c>
-      <c r="F96">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G96">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97">
         <v>6</v>
-      </c>
-      <c r="C97" t="s">
-        <v>104</v>
-      </c>
-      <c r="D97">
-        <v>1</v>
-      </c>
-      <c r="E97">
-        <v>13</v>
-      </c>
-      <c r="F97">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G97">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B98">
-        <v>6</v>
-      </c>
-      <c r="C98" t="s">
-        <v>105</v>
-      </c>
-      <c r="D98">
-        <v>1</v>
-      </c>
-      <c r="E98">
-        <v>12</v>
-      </c>
-      <c r="F98">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G98">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B99">
-        <v>6</v>
-      </c>
-      <c r="C99" t="s">
-        <v>106</v>
-      </c>
-      <c r="D99">
-        <v>1</v>
-      </c>
-      <c r="E99">
-        <v>11</v>
-      </c>
-      <c r="F99">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G99">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B100">
-        <v>6</v>
-      </c>
-      <c r="C100" t="s">
-        <v>79</v>
-      </c>
-      <c r="D100">
-        <v>1</v>
-      </c>
-      <c r="E100">
-        <v>11</v>
-      </c>
-      <c r="F100">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G100">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B101">
-        <v>6</v>
-      </c>
-      <c r="C101" t="s">
-        <v>16</v>
-      </c>
-      <c r="D101">
-        <v>1</v>
-      </c>
-      <c r="E101">
-        <v>11</v>
-      </c>
-      <c r="F101">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G101">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
-      <c r="B102">
-        <v>6</v>
-      </c>
-      <c r="C102" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102">
-        <v>1</v>
-      </c>
-      <c r="E102">
-        <v>10</v>
-      </c>
-      <c r="F102">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="G102">
-        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/Analisi_trimestrale.xlsx
+++ b/Analisi_trimestrale.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\Manutenzione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E12E68-A1DA-4645-B21F-B058110CC677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10C4DF-F4D6-4D46-B418-81EEC7CC6EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B31A7043-A28F-428C-9880-F98EDD055E1F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Da fare" sheetId="7" r:id="rId1"/>
-    <sheet name="Analisi_trimestreìale" sheetId="9" r:id="rId2"/>
-    <sheet name="Analisi_trimestreìale_NUOVO" sheetId="10" r:id="rId3"/>
+    <sheet name="ANALISI" sheetId="7" r:id="rId1"/>
+    <sheet name="Analisi_trimestreìale_NUOVO" sheetId="10" r:id="rId2"/>
+    <sheet name="Analisi_trimestreìale" sheetId="9" r:id="rId3"/>
     <sheet name="TERMO 1" sheetId="6" r:id="rId4"/>
     <sheet name="BOXING" sheetId="3" r:id="rId5"/>
     <sheet name="STAZIONE COS" sheetId="2" r:id="rId6"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="99">
   <si>
     <t>Data fermi</t>
   </si>
@@ -219,9 +219,6 @@
     <t>LINEA TRASPORTO CASSETTE</t>
   </si>
   <si>
-    <t>Linea</t>
-  </si>
-  <si>
     <t>STAZIONE</t>
   </si>
   <si>
@@ -290,6 +287,66 @@
   <si>
     <t>SPAZZOLA BANDIERE</t>
   </si>
+  <si>
+    <t>PULIZIA FINE TURNO</t>
+  </si>
+  <si>
+    <t>MANIPOLATORE 1</t>
+  </si>
+  <si>
+    <t>MANIPOLATORE 2</t>
+  </si>
+  <si>
+    <t>MANIPOLATORE 3</t>
+  </si>
+  <si>
+    <t>TERMOSALDATURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESINATRICE </t>
+  </si>
+  <si>
+    <t>PARANCO</t>
+  </si>
+  <si>
+    <t>TRANCIATURA MONOBLOCCHI</t>
+  </si>
+  <si>
+    <t>POMPA PIOMBO</t>
+  </si>
+  <si>
+    <t>TERMOSALDATRICE 1</t>
+  </si>
+  <si>
+    <t>NASTRO TRASPORTO BATTERIE</t>
+  </si>
+  <si>
+    <t>ROBOT PALLETTIZZATORE</t>
+  </si>
+  <si>
+    <t>TERMOSALDATRICE 2</t>
+  </si>
+  <si>
+    <t>SPAZZOLATURA POLARI</t>
+  </si>
+  <si>
+    <t>MARCATORE LASER</t>
+  </si>
+  <si>
+    <t>MARCATURA A CALDO 2</t>
+  </si>
+  <si>
+    <t>POSA DISCHETTI</t>
+  </si>
+  <si>
+    <t>1°PROVA CONTROLLO CORTI</t>
+  </si>
+  <si>
+    <t>SPECCHIO TERMO</t>
+  </si>
+  <si>
+    <t>AZIONAMENTO ASSI</t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +356,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -319,8 +376,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -333,8 +419,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -357,11 +485,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -375,7 +583,42 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -6898,160 +7141,2328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6507D801-A314-4B52-812D-7199C09062F3}">
-  <dimension ref="A1:E22"/>
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="23">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" s="30">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="23"/>
+      <c r="B3" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="18">
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="23"/>
+      <c r="B4" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="21">
+        <v>14.7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24">
+        <v>2</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="15">
+        <v>2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24"/>
+      <c r="B7" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24"/>
+      <c r="B8" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="21">
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24">
+        <v>2</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="15">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24"/>
+      <c r="B11" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D11" s="18">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="24"/>
+      <c r="B12" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="21">
+        <v>28.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="25">
+        <v>3</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D14" s="15">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="25"/>
+      <c r="B15" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="18">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="25"/>
+      <c r="B16" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="26">
+        <v>4</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="15">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="26"/>
+      <c r="B19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="18">
+        <v>4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="26"/>
+      <c r="B20" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="21">
+        <v>26.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="27">
+        <v>6</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D22" s="15">
+        <v>2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="27"/>
+      <c r="B23" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="D23" s="18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="27"/>
+      <c r="B24" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="D24" s="21">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A4"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A24"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E26600-95D7-42AC-BF51-5E0BCDD423B6}">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:H88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.6640625" customWidth="1"/>
+    <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.77734375" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="27.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="E1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="H1" s="4"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="28">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2">
+        <v>49</v>
+      </c>
+      <c r="E2">
+        <v>3201</v>
+      </c>
+      <c r="F2">
+        <v>0.55681818181818177</v>
+      </c>
+      <c r="G2" s="8">
+        <v>1.795918367346939</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
         <v>60</v>
       </c>
-      <c r="D2">
-        <v>1.795918367346939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s">
-        <v>74</v>
-      </c>
       <c r="D3">
-        <v>4.4000000000000004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>6</v>
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>549</v>
+      </c>
+      <c r="F3">
+        <v>0.13636363636363641</v>
+      </c>
+      <c r="G3">
+        <v>7.3333333333333339</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="28">
+        <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="D4">
-        <v>14.66666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="E4">
+        <v>146</v>
+      </c>
+      <c r="F4">
+        <v>0.10227272727272731</v>
+      </c>
+      <c r="G4">
+        <v>9.7777777777777768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="28">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>278</v>
+      </c>
+      <c r="F5">
+        <v>7.9545454545454544E-2</v>
+      </c>
+      <c r="G5">
+        <v>12.571428571428569</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D6">
-        <v>2.2051282051282048</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>12</v>
+        <v>5</v>
+      </c>
+      <c r="E6">
+        <v>321</v>
+      </c>
+      <c r="F6">
+        <v>5.6818181818181823E-2</v>
+      </c>
+      <c r="G6">
+        <v>17.600000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="28">
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>75</v>
       </c>
       <c r="D7">
-        <v>5.0588235294117654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>214</v>
+      </c>
+      <c r="F7">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="G7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>77</v>
+      </c>
+      <c r="F8">
+        <v>4.5454545454545463E-2</v>
+      </c>
+      <c r="G8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="28">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+      <c r="E9">
+        <v>104</v>
+      </c>
+      <c r="F9">
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="G9">
+        <v>29.333333333333339</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="28">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10">
+        <v>3</v>
+      </c>
+      <c r="E10">
+        <v>56</v>
+      </c>
+      <c r="F10">
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="G10">
+        <v>29.333333333333339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="28">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D11">
+        <v>3</v>
+      </c>
+      <c r="E11">
+        <v>51</v>
+      </c>
+      <c r="F11">
+        <v>3.4090909090909088E-2</v>
+      </c>
+      <c r="G11">
+        <v>29.333333333333339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="28">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12">
+        <v>111</v>
+      </c>
+      <c r="F12">
+        <v>2.2727272727272731E-2</v>
+      </c>
+      <c r="G12">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="28">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13">
+        <v>79</v>
+      </c>
+      <c r="F13">
+        <v>2.2727272727272731E-2</v>
+      </c>
+      <c r="G13">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="28">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>2.2727272727272731E-2</v>
+      </c>
+      <c r="G14">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="28">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15">
+        <v>2</v>
+      </c>
+      <c r="E15">
+        <v>23</v>
+      </c>
+      <c r="F15">
+        <v>2.2727272727272731E-2</v>
+      </c>
+      <c r="G15">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="28">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>87</v>
+      </c>
+      <c r="F16">
+        <v>1.136363636363636E-2</v>
+      </c>
+      <c r="G16">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="28">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>31</v>
+      </c>
+      <c r="F17">
+        <v>1.136363636363636E-2</v>
+      </c>
+      <c r="G17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="28">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>21</v>
+      </c>
+      <c r="F18">
+        <v>1.136363636363636E-2</v>
+      </c>
+      <c r="G18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="28">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <v>1.136363636363636E-2</v>
+      </c>
+      <c r="G19">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="28">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>10</v>
+      </c>
+      <c r="F20">
+        <v>1.136363636363636E-2</v>
+      </c>
+      <c r="G20">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="22">
+        <v>2</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21">
+        <v>39</v>
+      </c>
+      <c r="E21">
+        <v>1459</v>
+      </c>
+      <c r="F21">
+        <v>0.45348837209302317</v>
+      </c>
+      <c r="G21" s="8">
+        <v>2.2051282051282048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="22">
+        <v>2</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22">
+        <v>33</v>
+      </c>
+      <c r="E22">
+        <v>1762</v>
+      </c>
+      <c r="F22">
+        <v>0.38372093023255821</v>
+      </c>
+      <c r="G22">
+        <v>2.606060606060606</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="22">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23">
+        <v>20</v>
+      </c>
+      <c r="E23">
+        <v>1052</v>
+      </c>
+      <c r="F23">
+        <v>0.23255813953488369</v>
+      </c>
+      <c r="G23">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="22">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>11</v>
+      </c>
+      <c r="E24">
+        <v>603</v>
+      </c>
+      <c r="F24">
+        <v>0.12790697674418611</v>
+      </c>
+      <c r="G24">
+        <v>7.8181818181818166</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="22">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>11</v>
+      </c>
+      <c r="E25">
+        <v>298</v>
+      </c>
+      <c r="F25">
+        <v>0.12790697674418611</v>
+      </c>
+      <c r="G25">
+        <v>7.8181818181818166</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B26" s="22">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>15</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26">
+        <v>403</v>
+      </c>
+      <c r="F26">
+        <v>0.1162790697674419</v>
+      </c>
+      <c r="G26">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>38</v>
+      </c>
+      <c r="B27" s="22">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27">
+        <v>10</v>
+      </c>
+      <c r="E27">
+        <v>251</v>
+      </c>
+      <c r="F27">
+        <v>0.1162790697674419</v>
+      </c>
+      <c r="G27">
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="22">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28">
+        <v>9</v>
+      </c>
+      <c r="E28">
+        <v>247</v>
+      </c>
+      <c r="F28">
+        <v>0.10465116279069769</v>
+      </c>
+      <c r="G28">
+        <v>9.5555555555555554</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="22">
+        <v>2</v>
+      </c>
+      <c r="C29" t="s">
+        <v>21</v>
+      </c>
+      <c r="D29">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>191</v>
+      </c>
+      <c r="F29">
+        <v>9.3023255813953487E-2</v>
+      </c>
+      <c r="G29">
+        <v>10.75</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="22">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30">
+        <v>190</v>
+      </c>
+      <c r="F30">
+        <v>6.9767441860465115E-2</v>
+      </c>
+      <c r="G30">
+        <v>14.33333333333333</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B31" s="22">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
+      <c r="E31">
+        <v>111</v>
+      </c>
+      <c r="F31">
+        <v>5.8139534883720929E-2</v>
+      </c>
+      <c r="G31">
+        <v>17.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>38</v>
+      </c>
+      <c r="B32" s="22">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>212</v>
+      </c>
+      <c r="F32">
+        <v>4.6511627906976737E-2</v>
+      </c>
+      <c r="G32">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="22">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
         <v>71</v>
       </c>
-      <c r="D8">
-        <v>9.5555555555555554</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="D33">
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>167</v>
+      </c>
+      <c r="F33">
+        <v>4.6511627906976737E-2</v>
+      </c>
+      <c r="G33">
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="22">
         <v>2</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C34" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34">
+        <v>3</v>
+      </c>
+      <c r="E34">
+        <v>147</v>
+      </c>
+      <c r="F34">
+        <v>3.4883720930232558E-2</v>
+      </c>
+      <c r="G34">
+        <v>28.666666666666671</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="22">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35">
+        <v>3</v>
+      </c>
+      <c r="E35">
+        <v>74</v>
+      </c>
+      <c r="F35">
+        <v>3.4883720930232558E-2</v>
+      </c>
+      <c r="G35">
+        <v>28.666666666666671</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="22">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>32</v>
+      </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
+      <c r="E36">
+        <v>45</v>
+      </c>
+      <c r="F36">
+        <v>2.3255813953488368E-2</v>
+      </c>
+      <c r="G36">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>38</v>
+      </c>
+      <c r="B37" s="22">
+        <v>2</v>
+      </c>
+      <c r="C37" t="s">
+        <v>29</v>
+      </c>
+      <c r="D37">
+        <v>2</v>
+      </c>
+      <c r="E37">
+        <v>45</v>
+      </c>
+      <c r="F37">
+        <v>2.3255813953488368E-2</v>
+      </c>
+      <c r="G37">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="22">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>33</v>
+      </c>
+      <c r="F38">
+        <v>2.3255813953488368E-2</v>
+      </c>
+      <c r="G38">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>38</v>
+      </c>
+      <c r="B39" s="22">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39">
+        <v>2</v>
+      </c>
+      <c r="E39">
+        <v>21</v>
+      </c>
+      <c r="F39">
+        <v>2.3255813953488368E-2</v>
+      </c>
+      <c r="G39">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B40" s="22">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>24</v>
+      </c>
+      <c r="F40">
+        <v>1.1627906976744189E-2</v>
+      </c>
+      <c r="G40">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="B41" s="22">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>10</v>
+      </c>
+      <c r="F41">
+        <v>1.1627906976744189E-2</v>
+      </c>
+      <c r="G41">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="22">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>10</v>
+      </c>
+      <c r="F42">
+        <v>1.1627906976744189E-2</v>
+      </c>
+      <c r="G42">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="B43" s="10">
+        <v>3</v>
+      </c>
+      <c r="C43" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10">
-        <v>2.606060606060606</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="D43">
+        <v>42</v>
+      </c>
+      <c r="E43">
+        <v>2008</v>
+      </c>
+      <c r="F43">
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="G43" s="8">
+        <v>1.9047619047619051</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B44" s="10">
+        <v>3</v>
+      </c>
+      <c r="C44" t="s">
+        <v>44</v>
+      </c>
+      <c r="D44">
+        <v>13</v>
+      </c>
+      <c r="E44">
+        <v>278</v>
+      </c>
+      <c r="F44">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="G44">
+        <v>6.1538461538461533</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="10">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>17</v>
+      </c>
+      <c r="D45">
+        <v>13</v>
+      </c>
+      <c r="E45">
+        <v>258</v>
+      </c>
+      <c r="F45">
+        <v>0.16250000000000001</v>
+      </c>
+      <c r="G45">
+        <v>6.1538461538461533</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>38</v>
+      </c>
+      <c r="B46" s="10">
+        <v>3</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46">
+        <v>10</v>
+      </c>
+      <c r="E46">
+        <v>409</v>
+      </c>
+      <c r="F46">
+        <v>0.125</v>
+      </c>
+      <c r="G46">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>38</v>
+      </c>
+      <c r="B47" s="10">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>43</v>
+      </c>
+      <c r="D47">
+        <v>9</v>
+      </c>
+      <c r="E47">
+        <v>368</v>
+      </c>
+      <c r="F47">
+        <v>0.1125</v>
+      </c>
+      <c r="G47">
+        <v>8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="10">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>46</v>
+      </c>
+      <c r="D48">
+        <v>9</v>
+      </c>
+      <c r="E48">
+        <v>290</v>
+      </c>
+      <c r="F48">
+        <v>0.1125</v>
+      </c>
+      <c r="G48">
+        <v>8.8888888888888893</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="10">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>48</v>
+      </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
+      <c r="E49">
+        <v>97</v>
+      </c>
+      <c r="F49">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G49">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>38</v>
+      </c>
+      <c r="B50" s="10">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>51</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>35</v>
+      </c>
+      <c r="F50">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G50">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="10">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>21</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>34</v>
+      </c>
+      <c r="F51">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G51">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>38</v>
+      </c>
+      <c r="B52" s="10">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>79</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>17</v>
+      </c>
+      <c r="F52">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G52">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>38</v>
+      </c>
+      <c r="B53" s="10">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>14</v>
+      </c>
+      <c r="F53">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G53">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>38</v>
+      </c>
+      <c r="B54" s="10">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>12</v>
+      </c>
+      <c r="F54">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G54">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>38</v>
+      </c>
+      <c r="B55" s="10">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>54</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>12</v>
+      </c>
+      <c r="F55">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G55">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>38</v>
+      </c>
+      <c r="B56" s="10">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>28</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>12</v>
+      </c>
+      <c r="F56">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G56">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>38</v>
+      </c>
+      <c r="B57" s="11">
+        <v>4</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11">
-        <v>7.166666666666667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
+      <c r="D57">
+        <v>28</v>
+      </c>
+      <c r="E57">
+        <v>899</v>
+      </c>
+      <c r="F57">
+        <v>0.35443037974683539</v>
+      </c>
+      <c r="G57" s="8">
+        <v>2.8214285714285721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>38</v>
+      </c>
+      <c r="B58" s="11">
+        <v>4</v>
+      </c>
+      <c r="C58" t="s">
+        <v>80</v>
+      </c>
+      <c r="D58">
+        <v>9</v>
+      </c>
+      <c r="E58">
+        <v>647</v>
+      </c>
+      <c r="F58">
+        <v>0.1139240506329114</v>
+      </c>
+      <c r="G58">
+        <v>8.7777777777777786</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>38</v>
+      </c>
+      <c r="B59" s="11">
+        <v>4</v>
+      </c>
+      <c r="C59" t="s">
+        <v>81</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59">
+        <v>409</v>
+      </c>
+      <c r="F59">
+        <v>0.1012658227848101</v>
+      </c>
+      <c r="G59">
+        <v>9.875</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>38</v>
+      </c>
+      <c r="B60" s="11">
+        <v>4</v>
+      </c>
+      <c r="C60" t="s">
+        <v>82</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60">
+        <v>163</v>
+      </c>
+      <c r="F60">
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="G60">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61" s="11">
+        <v>4</v>
+      </c>
+      <c r="C61" t="s">
+        <v>26</v>
+      </c>
+      <c r="D61">
+        <v>4</v>
+      </c>
+      <c r="E61">
+        <v>92</v>
+      </c>
+      <c r="F61">
+        <v>5.0632911392405063E-2</v>
+      </c>
+      <c r="G61">
+        <v>19.75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62" s="11">
+        <v>4</v>
+      </c>
+      <c r="C62" t="s">
+        <v>44</v>
+      </c>
+      <c r="D62">
+        <v>3</v>
+      </c>
+      <c r="E62">
+        <v>76</v>
+      </c>
+      <c r="F62">
+        <v>3.7974683544303799E-2</v>
+      </c>
+      <c r="G62">
+        <v>26.333333333333329</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>38</v>
+      </c>
+      <c r="B63" s="11">
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>83</v>
+      </c>
+      <c r="D63">
+        <v>2</v>
+      </c>
+      <c r="E63">
+        <v>61</v>
+      </c>
+      <c r="F63">
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="G63">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="11">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>84</v>
+      </c>
+      <c r="D64">
+        <v>2</v>
+      </c>
+      <c r="E64">
+        <v>42</v>
+      </c>
+      <c r="F64">
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="G64">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>38</v>
+      </c>
+      <c r="B65" s="11">
+        <v>4</v>
+      </c>
+      <c r="C65" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65">
+        <v>2</v>
+      </c>
+      <c r="E65">
+        <v>31</v>
+      </c>
+      <c r="F65">
+        <v>2.5316455696202531E-2</v>
+      </c>
+      <c r="G65">
+        <v>39.5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>38</v>
+      </c>
+      <c r="B66" s="11">
+        <v>4</v>
+      </c>
+      <c r="C66" t="s">
+        <v>85</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66">
+        <v>27</v>
+      </c>
+      <c r="F66">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="G66">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>38</v>
+      </c>
+      <c r="B67" s="11">
+        <v>4</v>
+      </c>
+      <c r="C67" t="s">
+        <v>46</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67">
+        <v>15</v>
+      </c>
+      <c r="F67">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="G67">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>38</v>
+      </c>
+      <c r="B68" s="11">
+        <v>4</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68">
+        <v>14</v>
+      </c>
+      <c r="F68">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="G68">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>38</v>
+      </c>
+      <c r="B69" s="11">
+        <v>4</v>
+      </c>
+      <c r="C69" t="s">
+        <v>66</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69">
+        <v>13</v>
+      </c>
+      <c r="F69">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="G69">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>38</v>
+      </c>
+      <c r="B70" s="11">
+        <v>4</v>
+      </c>
+      <c r="C70" t="s">
+        <v>16</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70">
+        <v>13</v>
+      </c>
+      <c r="F70">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="G70">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="11">
+        <v>4</v>
+      </c>
+      <c r="C71" t="s">
+        <v>20</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71">
+        <v>11</v>
+      </c>
+      <c r="F71">
+        <v>1.2658227848101271E-2</v>
+      </c>
+      <c r="G71">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>38</v>
+      </c>
+      <c r="B72" s="12">
         <v>6</v>
       </c>
-      <c r="C12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D12">
-        <v>28.666666666666671</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="C72" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D72">
+        <v>35</v>
+      </c>
+      <c r="E72">
+        <v>772</v>
+      </c>
+      <c r="F72">
+        <v>0.4375</v>
+      </c>
+      <c r="G72" s="8">
+        <v>2.285714285714286</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>38</v>
+      </c>
+      <c r="B73" s="12">
+        <v>6</v>
+      </c>
+      <c r="C73" t="s">
+        <v>48</v>
+      </c>
+      <c r="D73">
+        <v>23</v>
+      </c>
+      <c r="E73">
+        <v>1556</v>
+      </c>
+      <c r="F73">
+        <v>0.28749999999999998</v>
+      </c>
+      <c r="G73">
+        <v>3.4782608695652182</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>38</v>
+      </c>
+      <c r="B74" s="12">
+        <v>6</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74">
+        <v>16</v>
+      </c>
+      <c r="E74">
+        <v>841</v>
+      </c>
+      <c r="F74">
+        <v>0.2</v>
+      </c>
+      <c r="G74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>38</v>
+      </c>
+      <c r="B75" s="12">
+        <v>6</v>
+      </c>
+      <c r="C75" t="s">
+        <v>89</v>
+      </c>
+      <c r="D75">
+        <v>5</v>
+      </c>
+      <c r="E75">
+        <v>192</v>
+      </c>
+      <c r="F75">
+        <v>6.25E-2</v>
+      </c>
+      <c r="G75">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>38</v>
+      </c>
+      <c r="B76" s="12">
+        <v>6</v>
+      </c>
+      <c r="C76" t="s">
+        <v>21</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>328</v>
+      </c>
+      <c r="F76">
+        <v>0.05</v>
+      </c>
+      <c r="G76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>38</v>
+      </c>
+      <c r="B77" s="12">
+        <v>6</v>
+      </c>
+      <c r="C77" t="s">
+        <v>90</v>
+      </c>
+      <c r="D77">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="E77">
+        <v>96</v>
+      </c>
+      <c r="F77">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G77">
+        <v>26.666666666666671</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>38</v>
+      </c>
+      <c r="B78" s="12">
         <v>6</v>
+      </c>
+      <c r="C78" t="s">
+        <v>91</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78">
+        <v>40</v>
+      </c>
+      <c r="F78">
+        <v>3.7499999999999999E-2</v>
+      </c>
+      <c r="G78">
+        <v>26.666666666666671</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>38</v>
+      </c>
+      <c r="B79" s="12">
+        <v>6</v>
+      </c>
+      <c r="C79" t="s">
+        <v>92</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+      <c r="E79">
+        <v>48</v>
+      </c>
+      <c r="F79">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="G79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="12">
+        <v>6</v>
+      </c>
+      <c r="C80" t="s">
+        <v>93</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80">
+        <v>38</v>
+      </c>
+      <c r="F80">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G80">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>38</v>
+      </c>
+      <c r="B81" s="12">
+        <v>6</v>
+      </c>
+      <c r="C81" t="s">
+        <v>17</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81">
+        <v>29</v>
+      </c>
+      <c r="F81">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G81">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>38</v>
+      </c>
+      <c r="B82" s="12">
+        <v>6</v>
+      </c>
+      <c r="C82" t="s">
+        <v>94</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82">
+        <v>13</v>
+      </c>
+      <c r="F82">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>38</v>
+      </c>
+      <c r="B83" s="12">
+        <v>6</v>
+      </c>
+      <c r="C83" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83">
+        <v>13</v>
+      </c>
+      <c r="F83">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G83">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>38</v>
+      </c>
+      <c r="B84" s="12">
+        <v>6</v>
+      </c>
+      <c r="C84" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84">
+        <v>12</v>
+      </c>
+      <c r="F84">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G84">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>38</v>
+      </c>
+      <c r="B85" s="12">
+        <v>6</v>
+      </c>
+      <c r="C85" t="s">
+        <v>96</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85">
+        <v>11</v>
+      </c>
+      <c r="F85">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G85">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>38</v>
+      </c>
+      <c r="B86" s="12">
+        <v>6</v>
+      </c>
+      <c r="C86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86">
+        <v>11</v>
+      </c>
+      <c r="F86">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G86">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87" s="12">
+        <v>6</v>
+      </c>
+      <c r="C87" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87">
+        <v>11</v>
+      </c>
+      <c r="F87">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G87">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>38</v>
+      </c>
+      <c r="B88" s="12">
+        <v>6</v>
+      </c>
+      <c r="C88" t="s">
+        <v>20</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88">
+        <v>10</v>
+      </c>
+      <c r="F88">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="G88">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -7059,11 +9470,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BF7561C-1C87-4281-AC64-55FC77DEF794}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-  </sheetPr>
   <dimension ref="A1:J109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9652,1374 +12060,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57E26600-95D7-42AC-BF51-5E0BCDD423B6}">
-  <dimension ref="A1:H97"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G97" sqref="C43:G97"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="32.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="4"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>49</v>
-      </c>
-      <c r="E2">
-        <v>3201</v>
-      </c>
-      <c r="F2">
-        <v>0.55681818181818177</v>
-      </c>
-      <c r="G2">
-        <v>1.795918367346939</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D3">
-        <v>12</v>
-      </c>
-      <c r="E3">
-        <v>549</v>
-      </c>
-      <c r="F3">
-        <v>0.13636363636363641</v>
-      </c>
-      <c r="G3">
-        <v>7.3333333333333339</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>62</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>321</v>
-      </c>
-      <c r="F4">
-        <v>5.6818181818181823E-2</v>
-      </c>
-      <c r="G4">
-        <v>17.600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-      <c r="E5">
-        <v>278</v>
-      </c>
-      <c r="F5">
-        <v>7.9545454545454544E-2</v>
-      </c>
-      <c r="G5">
-        <v>12.571428571428569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-      <c r="D6">
-        <v>4</v>
-      </c>
-      <c r="E6">
-        <v>214</v>
-      </c>
-      <c r="F6">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="G6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>64</v>
-      </c>
-      <c r="D7">
-        <v>9</v>
-      </c>
-      <c r="E7">
-        <v>146</v>
-      </c>
-      <c r="F7">
-        <v>0.10227272727272731</v>
-      </c>
-      <c r="G7">
-        <v>9.7777777777777768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8">
-        <v>111</v>
-      </c>
-      <c r="F8">
-        <v>2.2727272727272731E-2</v>
-      </c>
-      <c r="G8">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9">
-        <v>3</v>
-      </c>
-      <c r="E9">
-        <v>104</v>
-      </c>
-      <c r="F9">
-        <v>3.4090909090909088E-2</v>
-      </c>
-      <c r="G9">
-        <v>29.333333333333339</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>38</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s">
-        <v>65</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>87</v>
-      </c>
-      <c r="F10">
-        <v>1.136363636363636E-2</v>
-      </c>
-      <c r="G10">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>38</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11">
-        <v>79</v>
-      </c>
-      <c r="F11">
-        <v>2.2727272727272731E-2</v>
-      </c>
-      <c r="G11">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>38</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D12">
-        <v>4</v>
-      </c>
-      <c r="E12">
-        <v>77</v>
-      </c>
-      <c r="F12">
-        <v>4.5454545454545463E-2</v>
-      </c>
-      <c r="G12">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13">
-        <v>56</v>
-      </c>
-      <c r="F13">
-        <v>3.4090909090909088E-2</v>
-      </c>
-      <c r="G13">
-        <v>29.333333333333339</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>38</v>
-      </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14">
-        <v>3</v>
-      </c>
-      <c r="E14">
-        <v>51</v>
-      </c>
-      <c r="F14">
-        <v>3.4090909090909088E-2</v>
-      </c>
-      <c r="G14">
-        <v>29.333333333333339</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>77</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15">
-        <v>41</v>
-      </c>
-      <c r="F15">
-        <v>2.2727272727272731E-2</v>
-      </c>
-      <c r="G15">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>38</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s">
-        <v>78</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>31</v>
-      </c>
-      <c r="F16">
-        <v>1.136363636363636E-2</v>
-      </c>
-      <c r="G16">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>23</v>
-      </c>
-      <c r="F17">
-        <v>2.2727272727272731E-2</v>
-      </c>
-      <c r="G17">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s">
-        <v>22</v>
-      </c>
-      <c r="D18">
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <v>21</v>
-      </c>
-      <c r="F18">
-        <v>1.136363636363636E-2</v>
-      </c>
-      <c r="G18">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19">
-        <v>1</v>
-      </c>
-      <c r="E19">
-        <v>18</v>
-      </c>
-      <c r="F19">
-        <v>1.136363636363636E-2</v>
-      </c>
-      <c r="G19">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>70</v>
-      </c>
-      <c r="D20">
-        <v>1</v>
-      </c>
-      <c r="E20">
-        <v>10</v>
-      </c>
-      <c r="F20">
-        <v>1.136363636363636E-2</v>
-      </c>
-      <c r="G20">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>38</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21">
-        <v>33</v>
-      </c>
-      <c r="E21">
-        <v>1762</v>
-      </c>
-      <c r="F21">
-        <v>0.38372093023255821</v>
-      </c>
-      <c r="G21">
-        <v>2.606060606060606</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22">
-        <v>2</v>
-      </c>
-      <c r="C22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22">
-        <v>39</v>
-      </c>
-      <c r="E22">
-        <v>1459</v>
-      </c>
-      <c r="F22">
-        <v>0.45348837209302317</v>
-      </c>
-      <c r="G22">
-        <v>2.2051282051282048</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>38</v>
-      </c>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>13</v>
-      </c>
-      <c r="D23">
-        <v>20</v>
-      </c>
-      <c r="E23">
-        <v>1052</v>
-      </c>
-      <c r="F23">
-        <v>0.23255813953488369</v>
-      </c>
-      <c r="G23">
-        <v>4.3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>38</v>
-      </c>
-      <c r="B24">
-        <v>2</v>
-      </c>
-      <c r="C24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D24">
-        <v>11</v>
-      </c>
-      <c r="E24">
-        <v>603</v>
-      </c>
-      <c r="F24">
-        <v>0.12790697674418611</v>
-      </c>
-      <c r="G24">
-        <v>7.8181818181818166</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="B25">
-        <v>2</v>
-      </c>
-      <c r="C25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25">
-        <v>10</v>
-      </c>
-      <c r="E25">
-        <v>403</v>
-      </c>
-      <c r="F25">
-        <v>0.1162790697674419</v>
-      </c>
-      <c r="G25">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>38</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-      <c r="C26" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26">
-        <v>11</v>
-      </c>
-      <c r="E26">
-        <v>298</v>
-      </c>
-      <c r="F26">
-        <v>0.12790697674418611</v>
-      </c>
-      <c r="G26">
-        <v>7.8181818181818166</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B27">
-        <v>2</v>
-      </c>
-      <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27">
-        <v>10</v>
-      </c>
-      <c r="E27">
-        <v>251</v>
-      </c>
-      <c r="F27">
-        <v>0.1162790697674419</v>
-      </c>
-      <c r="G27">
-        <v>8.6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>38</v>
-      </c>
-      <c r="B28">
-        <v>2</v>
-      </c>
-      <c r="C28" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28">
-        <v>9</v>
-      </c>
-      <c r="E28">
-        <v>247</v>
-      </c>
-      <c r="F28">
-        <v>0.10465116279069769</v>
-      </c>
-      <c r="G28">
-        <v>9.5555555555555554</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B29">
-        <v>2</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29">
-        <v>4</v>
-      </c>
-      <c r="E29">
-        <v>212</v>
-      </c>
-      <c r="F29">
-        <v>4.6511627906976737E-2</v>
-      </c>
-      <c r="G29">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30">
-        <v>8</v>
-      </c>
-      <c r="E30">
-        <v>191</v>
-      </c>
-      <c r="F30">
-        <v>9.3023255813953487E-2</v>
-      </c>
-      <c r="G30">
-        <v>10.75</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>38</v>
-      </c>
-      <c r="B31">
-        <v>2</v>
-      </c>
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31">
-        <v>6</v>
-      </c>
-      <c r="E31">
-        <v>190</v>
-      </c>
-      <c r="F31">
-        <v>6.9767441860465115E-2</v>
-      </c>
-      <c r="G31">
-        <v>14.33333333333333</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>38</v>
-      </c>
-      <c r="B32">
-        <v>2</v>
-      </c>
-      <c r="C32" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32">
-        <v>4</v>
-      </c>
-      <c r="E32">
-        <v>167</v>
-      </c>
-      <c r="F32">
-        <v>4.6511627906976737E-2</v>
-      </c>
-      <c r="G32">
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33">
-        <v>2</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33">
-        <v>3</v>
-      </c>
-      <c r="E33">
-        <v>147</v>
-      </c>
-      <c r="F33">
-        <v>3.4883720930232558E-2</v>
-      </c>
-      <c r="G33">
-        <v>28.666666666666671</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>38</v>
-      </c>
-      <c r="B34">
-        <v>2</v>
-      </c>
-      <c r="C34" t="s">
-        <v>51</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34">
-        <v>111</v>
-      </c>
-      <c r="F34">
-        <v>5.8139534883720929E-2</v>
-      </c>
-      <c r="G34">
-        <v>17.2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>73</v>
-      </c>
-      <c r="D35">
-        <v>3</v>
-      </c>
-      <c r="E35">
-        <v>74</v>
-      </c>
-      <c r="F35">
-        <v>3.4883720930232558E-2</v>
-      </c>
-      <c r="G35">
-        <v>28.666666666666671</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>38</v>
-      </c>
-      <c r="B36">
-        <v>2</v>
-      </c>
-      <c r="C36" t="s">
-        <v>32</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36">
-        <v>45</v>
-      </c>
-      <c r="F36">
-        <v>2.3255813953488368E-2</v>
-      </c>
-      <c r="G36">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>38</v>
-      </c>
-      <c r="B37">
-        <v>2</v>
-      </c>
-      <c r="C37" t="s">
-        <v>29</v>
-      </c>
-      <c r="D37">
-        <v>2</v>
-      </c>
-      <c r="E37">
-        <v>45</v>
-      </c>
-      <c r="F37">
-        <v>2.3255813953488368E-2</v>
-      </c>
-      <c r="G37">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>2</v>
-      </c>
-      <c r="C38" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38">
-        <v>2</v>
-      </c>
-      <c r="E38">
-        <v>33</v>
-      </c>
-      <c r="F38">
-        <v>2.3255813953488368E-2</v>
-      </c>
-      <c r="G38">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39">
-        <v>2</v>
-      </c>
-      <c r="C39" t="s">
-        <v>31</v>
-      </c>
-      <c r="D39">
-        <v>1</v>
-      </c>
-      <c r="E39">
-        <v>24</v>
-      </c>
-      <c r="F39">
-        <v>1.1627906976744189E-2</v>
-      </c>
-      <c r="G39">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="B40">
-        <v>2</v>
-      </c>
-      <c r="C40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40">
-        <v>2</v>
-      </c>
-      <c r="E40">
-        <v>21</v>
-      </c>
-      <c r="F40">
-        <v>2.3255813953488368E-2</v>
-      </c>
-      <c r="G40">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41">
-        <v>2</v>
-      </c>
-      <c r="C41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41">
-        <v>1</v>
-      </c>
-      <c r="E41">
-        <v>10</v>
-      </c>
-      <c r="F41">
-        <v>1.1627906976744189E-2</v>
-      </c>
-      <c r="G41">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>38</v>
-      </c>
-      <c r="B42">
-        <v>2</v>
-      </c>
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="D42">
-        <v>1</v>
-      </c>
-      <c r="E42">
-        <v>10</v>
-      </c>
-      <c r="F42">
-        <v>1.1627906976744189E-2</v>
-      </c>
-      <c r="G42">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>38</v>
-      </c>
-      <c r="B43">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B44">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>38</v>
-      </c>
-      <c r="B45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>38</v>
-      </c>
-      <c r="B46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>38</v>
-      </c>
-      <c r="B47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>38</v>
-      </c>
-      <c r="B48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>38</v>
-      </c>
-      <c r="B49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>38</v>
-      </c>
-      <c r="B52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>38</v>
-      </c>
-      <c r="B53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>38</v>
-      </c>
-      <c r="B54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>38</v>
-      </c>
-      <c r="B55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>38</v>
-      </c>
-      <c r="B56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>38</v>
-      </c>
-      <c r="B57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>38</v>
-      </c>
-      <c r="B59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>38</v>
-      </c>
-      <c r="B60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>38</v>
-      </c>
-      <c r="B61">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>38</v>
-      </c>
-      <c r="B63">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>38</v>
-      </c>
-      <c r="B64">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>38</v>
-      </c>
-      <c r="B65">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>38</v>
-      </c>
-      <c r="B67">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>38</v>
-      </c>
-      <c r="B68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>38</v>
-      </c>
-      <c r="B69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>38</v>
-      </c>
-      <c r="B70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>38</v>
-      </c>
-      <c r="B71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>38</v>
-      </c>
-      <c r="B72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>38</v>
-      </c>
-      <c r="B73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>38</v>
-      </c>
-      <c r="B74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
-        <v>38</v>
-      </c>
-      <c r="B75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
-        <v>38</v>
-      </c>
-      <c r="B76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>38</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B78">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B79">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B80">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/Analisi_trimestrale.xlsx
+++ b/Analisi_trimestrale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\Manutenzione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C10C4DF-F4D6-4D46-B418-81EEC7CC6EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A409DDD8-B6EB-49DF-8606-720F44F74125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B31A7043-A28F-428C-9880-F98EDD055E1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B31A7043-A28F-428C-9880-F98EDD055E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="ANALISI" sheetId="7" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="99">
   <si>
     <t>Data fermi</t>
   </si>
@@ -356,7 +356,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -404,6 +404,13 @@
       <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="10">
@@ -569,7 +576,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -593,12 +600,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,11 +625,15 @@
     <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7144,10 +7159,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7156,264 +7171,305 @@
     <col min="2" max="2" width="24.21875" customWidth="1"/>
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="I1" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+    </row>
+    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D2" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E2" s="9" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="23">
+      <c r="I2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="25">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="30">
+      <c r="D3" s="24">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="23"/>
-      <c r="B3" s="16" t="s">
+      <c r="I3" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="25"/>
+      <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C4" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D4" s="17">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="23"/>
-      <c r="B4" s="19" t="s">
+      <c r="I4" s="32"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="25"/>
+      <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D5" s="20">
         <v>14.7</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24">
+      <c r="I5" s="32"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="26">
         <v>2</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D7" s="15">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24"/>
-      <c r="B7" s="16" t="s">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="26"/>
+      <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C8" t="s">
         <v>74</v>
       </c>
-      <c r="D7" s="18">
+      <c r="D8" s="17">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24"/>
-      <c r="B8" s="19" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="26"/>
+      <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C9" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D9" s="20">
         <v>9.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="24">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="26">
         <v>2</v>
       </c>
-      <c r="B10" s="13" t="s">
+      <c r="B11" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D11" s="15">
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24"/>
-      <c r="B11" s="16" t="s">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="26"/>
+      <c r="B12" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="17" t="s">
+      <c r="C12" t="s">
         <v>73</v>
       </c>
-      <c r="D11" s="18">
+      <c r="D12" s="17">
         <v>7.2</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="24"/>
-      <c r="B12" s="19" t="s">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="26"/>
+      <c r="B13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C13" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="D12" s="21">
+      <c r="D13" s="20">
         <v>28.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="7"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="27">
         <v>3</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D14" s="15">
+      <c r="D15" s="15">
         <v>1.9</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="16" t="s">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="27"/>
+      <c r="B16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C16" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="18">
+      <c r="D16" s="17">
         <v>3.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="19" t="s">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="27"/>
+      <c r="B17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="21">
+      <c r="D17" s="20">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="26">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A19" s="28">
         <v>4</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D18" s="15">
+      <c r="D19" s="15">
         <v>2.8</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="26"/>
-      <c r="B19" s="16" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="28"/>
+      <c r="B20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C20" t="s">
         <v>87</v>
       </c>
-      <c r="D19" s="18">
+      <c r="D20" s="17">
         <v>4.0999999999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="26"/>
-      <c r="B20" s="19" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="28"/>
+      <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C21" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D21" s="20">
         <v>26.3</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="27">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="29">
         <v>6</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D22" s="15">
+      <c r="D23" s="15">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="27"/>
-      <c r="B23" s="16" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="29"/>
+      <c r="B24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="C23" s="17" t="s">
+      <c r="C24" t="s">
         <v>97</v>
       </c>
-      <c r="D23" s="18">
+      <c r="D24" s="17">
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="27"/>
-      <c r="B24" s="19" t="s">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="29"/>
+      <c r="B25" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C25" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="D24" s="21">
+      <c r="D25" s="20">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="A22:A24"/>
+  <mergeCells count="9">
+    <mergeCell ref="A23:A25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="A19:A21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7425,10 +7481,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H88"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7441,25 +7497,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="29" t="s">
+      <c r="D1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="29" t="s">
+      <c r="E1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="29" t="s">
+      <c r="F1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="29" t="s">
+      <c r="G1" s="23" t="s">
         <v>10</v>
       </c>
       <c r="H1" s="4"/>
@@ -7468,7 +7524,7 @@
       <c r="A2" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="22">
         <v>1</v>
       </c>
       <c r="C2" s="8" t="s">
@@ -7491,7 +7547,7 @@
       <c r="A3" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="22">
         <v>1</v>
       </c>
       <c r="C3" t="s">
@@ -7514,7 +7570,7 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="22">
         <v>1</v>
       </c>
       <c r="C4" t="s">
@@ -7537,7 +7593,7 @@
       <c r="A5" t="s">
         <v>38</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="22">
         <v>1</v>
       </c>
       <c r="C5" t="s">
@@ -7560,7 +7616,7 @@
       <c r="A6" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="22">
         <v>1</v>
       </c>
       <c r="C6" t="s">
@@ -7583,7 +7639,7 @@
       <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="22">
         <v>1</v>
       </c>
       <c r="C7" t="s">
@@ -7606,7 +7662,7 @@
       <c r="A8" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="22">
         <v>1</v>
       </c>
       <c r="C8" t="s">
@@ -7629,7 +7685,7 @@
       <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="22">
         <v>1</v>
       </c>
       <c r="C9" t="s">
@@ -7652,7 +7708,7 @@
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="22">
         <v>1</v>
       </c>
       <c r="C10" t="s">
@@ -7675,7 +7731,7 @@
       <c r="A11" t="s">
         <v>38</v>
       </c>
-      <c r="B11" s="28">
+      <c r="B11" s="22">
         <v>1</v>
       </c>
       <c r="C11" t="s">
@@ -7698,7 +7754,7 @@
       <c r="A12" t="s">
         <v>38</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="22">
         <v>1</v>
       </c>
       <c r="C12" t="s">
@@ -7721,7 +7777,7 @@
       <c r="A13" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="22">
         <v>1</v>
       </c>
       <c r="C13" t="s">
@@ -7744,7 +7800,7 @@
       <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="22">
         <v>1</v>
       </c>
       <c r="C14" t="s">
@@ -7767,7 +7823,7 @@
       <c r="A15" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="22">
         <v>1</v>
       </c>
       <c r="C15" t="s">
@@ -7790,7 +7846,7 @@
       <c r="A16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="22">
         <v>1</v>
       </c>
       <c r="C16" t="s">
@@ -7813,7 +7869,7 @@
       <c r="A17" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="28">
+      <c r="B17" s="22">
         <v>1</v>
       </c>
       <c r="C17" t="s">
@@ -7836,7 +7892,7 @@
       <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="28">
+      <c r="B18" s="22">
         <v>1</v>
       </c>
       <c r="C18" t="s">
@@ -7859,7 +7915,7 @@
       <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="28">
+      <c r="B19" s="22">
         <v>1</v>
       </c>
       <c r="C19" t="s">
@@ -7882,7 +7938,7 @@
       <c r="A20" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="28">
+      <c r="B20" s="22">
         <v>1</v>
       </c>
       <c r="C20" t="s">
@@ -7905,7 +7961,7 @@
       <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="22">
+      <c r="B21" s="21">
         <v>2</v>
       </c>
       <c r="C21" s="8" t="s">
@@ -7928,7 +7984,7 @@
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" s="22">
+      <c r="B22" s="21">
         <v>2</v>
       </c>
       <c r="C22" t="s">
@@ -7951,7 +8007,7 @@
       <c r="A23" t="s">
         <v>38</v>
       </c>
-      <c r="B23" s="22">
+      <c r="B23" s="21">
         <v>2</v>
       </c>
       <c r="C23" t="s">
@@ -7974,7 +8030,7 @@
       <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B24" s="22">
+      <c r="B24" s="21">
         <v>2</v>
       </c>
       <c r="C24" t="s">
@@ -7997,7 +8053,7 @@
       <c r="A25" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B25" s="21">
         <v>2</v>
       </c>
       <c r="C25" t="s">
@@ -8020,7 +8076,7 @@
       <c r="A26" t="s">
         <v>38</v>
       </c>
-      <c r="B26" s="22">
+      <c r="B26" s="21">
         <v>2</v>
       </c>
       <c r="C26" t="s">
@@ -8043,7 +8099,7 @@
       <c r="A27" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="22">
+      <c r="B27" s="21">
         <v>2</v>
       </c>
       <c r="C27" t="s">
@@ -8066,7 +8122,7 @@
       <c r="A28" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="22">
+      <c r="B28" s="21">
         <v>2</v>
       </c>
       <c r="C28" t="s">
@@ -8089,7 +8145,7 @@
       <c r="A29" t="s">
         <v>38</v>
       </c>
-      <c r="B29" s="22">
+      <c r="B29" s="21">
         <v>2</v>
       </c>
       <c r="C29" t="s">
@@ -8112,7 +8168,7 @@
       <c r="A30" t="s">
         <v>38</v>
       </c>
-      <c r="B30" s="22">
+      <c r="B30" s="21">
         <v>2</v>
       </c>
       <c r="C30" t="s">
@@ -8135,7 +8191,7 @@
       <c r="A31" t="s">
         <v>38</v>
       </c>
-      <c r="B31" s="22">
+      <c r="B31" s="21">
         <v>2</v>
       </c>
       <c r="C31" t="s">
@@ -8158,7 +8214,7 @@
       <c r="A32" t="s">
         <v>38</v>
       </c>
-      <c r="B32" s="22">
+      <c r="B32" s="21">
         <v>2</v>
       </c>
       <c r="C32" t="s">
@@ -8181,7 +8237,7 @@
       <c r="A33" t="s">
         <v>38</v>
       </c>
-      <c r="B33" s="22">
+      <c r="B33" s="21">
         <v>2</v>
       </c>
       <c r="C33" t="s">
@@ -8204,7 +8260,7 @@
       <c r="A34" t="s">
         <v>38</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="21">
         <v>2</v>
       </c>
       <c r="C34" t="s">
@@ -8227,7 +8283,7 @@
       <c r="A35" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="22">
+      <c r="B35" s="21">
         <v>2</v>
       </c>
       <c r="C35" t="s">
@@ -8250,7 +8306,7 @@
       <c r="A36" t="s">
         <v>38</v>
       </c>
-      <c r="B36" s="22">
+      <c r="B36" s="21">
         <v>2</v>
       </c>
       <c r="C36" t="s">
@@ -8273,7 +8329,7 @@
       <c r="A37" t="s">
         <v>38</v>
       </c>
-      <c r="B37" s="22">
+      <c r="B37" s="21">
         <v>2</v>
       </c>
       <c r="C37" t="s">
@@ -8296,7 +8352,7 @@
       <c r="A38" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="22">
+      <c r="B38" s="21">
         <v>2</v>
       </c>
       <c r="C38" t="s">
@@ -8319,7 +8375,7 @@
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="22">
+      <c r="B39" s="21">
         <v>2</v>
       </c>
       <c r="C39" t="s">
@@ -8342,7 +8398,7 @@
       <c r="A40" t="s">
         <v>38</v>
       </c>
-      <c r="B40" s="22">
+      <c r="B40" s="21">
         <v>2</v>
       </c>
       <c r="C40" t="s">
@@ -8365,7 +8421,7 @@
       <c r="A41" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="22">
+      <c r="B41" s="21">
         <v>2</v>
       </c>
       <c r="C41" t="s">
@@ -8388,7 +8444,7 @@
       <c r="A42" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="22">
+      <c r="B42" s="21">
         <v>2</v>
       </c>
       <c r="C42" t="s">
@@ -9463,6 +9519,14 @@
       </c>
       <c r="G88">
         <v>80</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>39</v>
+      </c>
+      <c r="B91" s="22">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/Analisi_trimestrale.xlsx
+++ b/Analisi_trimestrale.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\Manutenzione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A409DDD8-B6EB-49DF-8606-720F44F74125}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46696863-ED7F-48B4-AF79-1F28D824024F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{B31A7043-A28F-428C-9880-F98EDD055E1F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B31A7043-A28F-428C-9880-F98EDD055E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="ANALISI" sheetId="7" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="109">
   <si>
     <t>Data fermi</t>
   </si>
@@ -347,6 +347,36 @@
   <si>
     <t>AZIONAMENTO ASSI</t>
   </si>
+  <si>
+    <t>ELBAK2</t>
+  </si>
+  <si>
+    <t>VIBRATORE</t>
+  </si>
+  <si>
+    <t>STAGNATURA</t>
+  </si>
+  <si>
+    <t>NASTRO TRASPORTATORE FINALE</t>
+  </si>
+  <si>
+    <t>PROVA TENUTA</t>
+  </si>
+  <si>
+    <t>DISOSSIDANTE</t>
+  </si>
+  <si>
+    <t>LINEA TRASPORTO MONOBLOCCHI</t>
+  </si>
+  <si>
+    <t>BLACK OUT MACCHINA</t>
+  </si>
+  <si>
+    <t>TEKMAX</t>
+  </si>
+  <si>
+    <t>BUFFER GRUPPI</t>
+  </si>
 </sst>
 </file>
 
@@ -576,7 +606,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -610,6 +640,15 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -622,18 +661,10 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7161,8 +7192,8 @@
   </sheetPr>
   <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N24" sqref="N24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7172,24 +7203,25 @@
     <col min="3" max="3" width="26.6640625" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" customWidth="1"/>
+    <col min="12" max="12" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="I1" s="31" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="I1" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
     </row>
     <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
@@ -7224,7 +7256,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="25">
+      <c r="A3" s="28">
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
@@ -7239,9 +7271,18 @@
       <c r="I3" s="32">
         <v>1</v>
       </c>
+      <c r="J3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" s="15">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="25"/>
+      <c r="A4" s="28"/>
       <c r="B4" s="16" t="s">
         <v>6</v>
       </c>
@@ -7252,9 +7293,18 @@
         <v>4.4000000000000004</v>
       </c>
       <c r="I4" s="32"/>
+      <c r="J4" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K4" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="17">
+        <v>10.6</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="25"/>
+      <c r="A5" s="28"/>
       <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
@@ -7265,9 +7315,18 @@
         <v>14.7</v>
       </c>
       <c r="I5" s="32"/>
+      <c r="J5" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="20">
+        <v>12.3</v>
+      </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="26">
+      <c r="A7" s="29">
         <v>2</v>
       </c>
       <c r="B7" s="13" t="s">
@@ -7279,9 +7338,21 @@
       <c r="D7" s="15">
         <v>2.2000000000000002</v>
       </c>
+      <c r="I7" s="29">
+        <v>2</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K7" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L7" s="15">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="26"/>
+      <c r="A8" s="29"/>
       <c r="B8" s="16" t="s">
         <v>12</v>
       </c>
@@ -7291,9 +7362,19 @@
       <c r="D8" s="17">
         <v>5</v>
       </c>
+      <c r="I8" s="29"/>
+      <c r="J8" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L8" s="17">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="26"/>
+      <c r="A9" s="29"/>
       <c r="B9" s="18" t="s">
         <v>12</v>
       </c>
@@ -7303,9 +7384,19 @@
       <c r="D9" s="20">
         <v>9.5</v>
       </c>
+      <c r="I9" s="29"/>
+      <c r="J9" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K9" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="L9" s="20">
+        <v>18.25</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="26">
+      <c r="A11" s="29">
         <v>2</v>
       </c>
       <c r="B11" s="13" t="s">
@@ -7317,9 +7408,21 @@
       <c r="D11" s="15">
         <v>2.6</v>
       </c>
+      <c r="I11" s="29">
+        <v>2</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="K11" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L11" s="15">
+        <v>3.65</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="26"/>
+      <c r="A12" s="29"/>
       <c r="B12" s="16" t="s">
         <v>6</v>
       </c>
@@ -7329,9 +7432,19 @@
       <c r="D12" s="17">
         <v>7.2</v>
       </c>
+      <c r="I12" s="29"/>
+      <c r="J12" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="L12" s="17">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="26"/>
+      <c r="A13" s="29"/>
       <c r="B13" s="18" t="s">
         <v>6</v>
       </c>
@@ -7341,12 +7454,22 @@
       <c r="D13" s="20">
         <v>28.6</v>
       </c>
+      <c r="I13" s="29"/>
+      <c r="J13" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="L13" s="20">
+        <v>24.3</v>
+      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="27">
+      <c r="A15" s="30">
         <v>3</v>
       </c>
       <c r="B15" s="13" t="s">
@@ -7358,9 +7481,21 @@
       <c r="D15" s="15">
         <v>1.9</v>
       </c>
+      <c r="I15" s="30">
+        <v>3</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L15" s="15">
+        <v>2.2000000000000002</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="27"/>
+      <c r="A16" s="30"/>
       <c r="B16" s="16" t="s">
         <v>6</v>
       </c>
@@ -7370,9 +7505,19 @@
       <c r="D16" s="17">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="27"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K16" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="L16" s="17">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17" s="30"/>
       <c r="B17" s="18" t="s">
         <v>6</v>
       </c>
@@ -7382,9 +7527,19 @@
       <c r="D17" s="20">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="28">
+      <c r="I17" s="30"/>
+      <c r="J17" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K17" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="L17" s="20">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
         <v>4</v>
       </c>
       <c r="B19" s="13" t="s">
@@ -7396,9 +7551,21 @@
       <c r="D19" s="15">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="28"/>
+      <c r="I19" s="31">
+        <v>4</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="K19" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L19" s="15">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20" s="31"/>
       <c r="B20" s="16" t="s">
         <v>6</v>
       </c>
@@ -7408,9 +7575,19 @@
       <c r="D20" s="17">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="28"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="L20" s="17">
+        <v>7.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A21" s="31"/>
       <c r="B21" s="18" t="s">
         <v>6</v>
       </c>
@@ -7420,9 +7597,19 @@
       <c r="D21" s="20">
         <v>26.3</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
+      <c r="I21" s="31"/>
+      <c r="J21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="K21" s="19" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="20">
+        <v>24.6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23" s="25">
         <v>6</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -7434,9 +7621,21 @@
       <c r="D23" s="15">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="29"/>
+      <c r="I23" s="25">
+        <v>6</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>88</v>
+      </c>
+      <c r="K23" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="L23" s="15">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24" s="25"/>
       <c r="B24" s="16" t="s">
         <v>88</v>
       </c>
@@ -7446,9 +7645,19 @@
       <c r="D24" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="29"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="L24" s="17">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
       <c r="B25" s="18" t="s">
         <v>88</v>
       </c>
@@ -7458,9 +7667,19 @@
       <c r="D25" s="20">
         <v>8</v>
       </c>
+      <c r="I25" s="25"/>
+      <c r="J25" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="K25" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="20">
+        <v>6.6</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="14">
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="I1:M1"/>
@@ -7470,6 +7689,11 @@
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="I11:I13"/>
+    <mergeCell ref="I15:I17"/>
+    <mergeCell ref="I19:I21"/>
+    <mergeCell ref="I23:I25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7481,10 +7705,10 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C91" sqref="C91"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="G158" sqref="G158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9527,6 +9751,1838 @@
       </c>
       <c r="B91" s="22">
         <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91">
+        <v>31</v>
+      </c>
+      <c r="E91">
+        <v>2362</v>
+      </c>
+      <c r="F91">
+        <v>0.41891891891891891</v>
+      </c>
+      <c r="G91">
+        <v>2.387096774193548</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+      <c r="B92" s="22">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>61</v>
+      </c>
+      <c r="D92">
+        <v>20</v>
+      </c>
+      <c r="E92">
+        <v>1060</v>
+      </c>
+      <c r="F92">
+        <v>0.27027027027027029</v>
+      </c>
+      <c r="G92">
+        <v>3.7</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>39</v>
+      </c>
+      <c r="B93" s="22">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>60</v>
+      </c>
+      <c r="D93">
+        <v>9</v>
+      </c>
+      <c r="E93">
+        <v>176</v>
+      </c>
+      <c r="F93">
+        <v>0.1216216216216216</v>
+      </c>
+      <c r="G93">
+        <v>8.2222222222222214</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>39</v>
+      </c>
+      <c r="B94" s="22">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>69</v>
+      </c>
+      <c r="D94">
+        <v>8</v>
+      </c>
+      <c r="E94">
+        <v>647</v>
+      </c>
+      <c r="F94">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="G94">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>39</v>
+      </c>
+      <c r="B95" s="22">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>63</v>
+      </c>
+      <c r="D95">
+        <v>7</v>
+      </c>
+      <c r="E95">
+        <v>169</v>
+      </c>
+      <c r="F95">
+        <v>9.45945945945946E-2</v>
+      </c>
+      <c r="G95">
+        <v>10.571428571428569</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>39</v>
+      </c>
+      <c r="B96" s="22">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>65</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+      <c r="E96">
+        <v>187</v>
+      </c>
+      <c r="F96">
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="G96">
+        <v>12.33333333333333</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>39</v>
+      </c>
+      <c r="B97" s="22">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D97">
+        <v>6</v>
+      </c>
+      <c r="E97">
+        <v>168</v>
+      </c>
+      <c r="F97">
+        <v>8.1081081081081086E-2</v>
+      </c>
+      <c r="G97">
+        <v>12.33333333333333</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>39</v>
+      </c>
+      <c r="B98" s="22">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>4</v>
+      </c>
+      <c r="E98">
+        <v>359</v>
+      </c>
+      <c r="F98">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="G98">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="22">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>26</v>
+      </c>
+      <c r="D99">
+        <v>3</v>
+      </c>
+      <c r="E99">
+        <v>72</v>
+      </c>
+      <c r="F99">
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="G99">
+        <v>24.666666666666661</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>39</v>
+      </c>
+      <c r="B100" s="22">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>76</v>
+      </c>
+      <c r="D100">
+        <v>3</v>
+      </c>
+      <c r="E100">
+        <v>57</v>
+      </c>
+      <c r="F100">
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="G100">
+        <v>24.666666666666661</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>39</v>
+      </c>
+      <c r="B101" s="22">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>66</v>
+      </c>
+      <c r="D101">
+        <v>3</v>
+      </c>
+      <c r="E101">
+        <v>35</v>
+      </c>
+      <c r="F101">
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="G101">
+        <v>24.666666666666661</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>39</v>
+      </c>
+      <c r="B102" s="22">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>28</v>
+      </c>
+      <c r="D102">
+        <v>2</v>
+      </c>
+      <c r="E102">
+        <v>101</v>
+      </c>
+      <c r="F102">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="G102">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>39</v>
+      </c>
+      <c r="B103" s="22">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>99</v>
+      </c>
+      <c r="D103">
+        <v>2</v>
+      </c>
+      <c r="E103">
+        <v>22</v>
+      </c>
+      <c r="F103">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="G103">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>39</v>
+      </c>
+      <c r="B104" s="22">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>29</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104">
+        <v>39</v>
+      </c>
+      <c r="F104">
+        <v>1.3513513513513511E-2</v>
+      </c>
+      <c r="G104">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>39</v>
+      </c>
+      <c r="B105" s="22">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105">
+        <v>34</v>
+      </c>
+      <c r="F105">
+        <v>1.3513513513513511E-2</v>
+      </c>
+      <c r="G105">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>39</v>
+      </c>
+      <c r="B106" s="22">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>12</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106">
+        <v>26</v>
+      </c>
+      <c r="F106">
+        <v>1.3513513513513511E-2</v>
+      </c>
+      <c r="G106">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>39</v>
+      </c>
+      <c r="B107" s="22">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>64</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107">
+        <v>17</v>
+      </c>
+      <c r="F107">
+        <v>1.3513513513513511E-2</v>
+      </c>
+      <c r="G107">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>39</v>
+      </c>
+      <c r="B108" s="22">
+        <v>1</v>
+      </c>
+      <c r="C108" t="s">
+        <v>100</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108">
+        <v>16</v>
+      </c>
+      <c r="F108">
+        <v>1.3513513513513511E-2</v>
+      </c>
+      <c r="G108">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>39</v>
+      </c>
+      <c r="B109" s="21">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>6</v>
+      </c>
+      <c r="D109">
+        <v>24</v>
+      </c>
+      <c r="E109">
+        <v>1159</v>
+      </c>
+      <c r="F109">
+        <v>0.32876712328767121</v>
+      </c>
+      <c r="G109">
+        <v>3.041666666666667</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>39</v>
+      </c>
+      <c r="B110" s="21">
+        <v>2</v>
+      </c>
+      <c r="C110" t="s">
+        <v>12</v>
+      </c>
+      <c r="D110">
+        <v>20</v>
+      </c>
+      <c r="E110">
+        <v>748</v>
+      </c>
+      <c r="F110">
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="G110">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>39</v>
+      </c>
+      <c r="B111" s="21">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>19</v>
+      </c>
+      <c r="E111">
+        <v>1101</v>
+      </c>
+      <c r="F111">
+        <v>0.26027397260273971</v>
+      </c>
+      <c r="G111">
+        <v>3.8421052631578951</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
+        <v>39</v>
+      </c>
+      <c r="B112" s="21">
+        <v>2</v>
+      </c>
+      <c r="C112" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112">
+        <v>9</v>
+      </c>
+      <c r="E112">
+        <v>213</v>
+      </c>
+      <c r="F112">
+        <v>0.12328767123287671</v>
+      </c>
+      <c r="G112">
+        <v>8.1111111111111107</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>39</v>
+      </c>
+      <c r="B113" s="21">
+        <v>2</v>
+      </c>
+      <c r="C113" t="s">
+        <v>15</v>
+      </c>
+      <c r="D113">
+        <v>8</v>
+      </c>
+      <c r="E113">
+        <v>220</v>
+      </c>
+      <c r="F113">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="G113">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>39</v>
+      </c>
+      <c r="B114" s="21">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>26</v>
+      </c>
+      <c r="D114">
+        <v>6</v>
+      </c>
+      <c r="E114">
+        <v>521</v>
+      </c>
+      <c r="F114">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="G114">
+        <v>12.16666666666667</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>39</v>
+      </c>
+      <c r="B115" s="21">
+        <v>2</v>
+      </c>
+      <c r="C115" t="s">
+        <v>19</v>
+      </c>
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>239</v>
+      </c>
+      <c r="F115">
+        <v>6.8493150684931503E-2</v>
+      </c>
+      <c r="G115">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>39</v>
+      </c>
+      <c r="B116" s="21">
+        <v>2</v>
+      </c>
+      <c r="C116" t="s">
+        <v>16</v>
+      </c>
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>160</v>
+      </c>
+      <c r="F116">
+        <v>6.8493150684931503E-2</v>
+      </c>
+      <c r="G116">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117" s="21">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>21</v>
+      </c>
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>91</v>
+      </c>
+      <c r="F117">
+        <v>6.8493150684931503E-2</v>
+      </c>
+      <c r="G117">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>39</v>
+      </c>
+      <c r="B118" s="21">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>25</v>
+      </c>
+      <c r="D118">
+        <v>4</v>
+      </c>
+      <c r="E118">
+        <v>110</v>
+      </c>
+      <c r="F118">
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="G118">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>39</v>
+      </c>
+      <c r="B119" s="21">
+        <v>2</v>
+      </c>
+      <c r="C119" t="s">
+        <v>17</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119">
+        <v>92</v>
+      </c>
+      <c r="F119">
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="G119">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>39</v>
+      </c>
+      <c r="B120" s="21">
+        <v>2</v>
+      </c>
+      <c r="C120" t="s">
+        <v>20</v>
+      </c>
+      <c r="D120">
+        <v>3</v>
+      </c>
+      <c r="E120">
+        <v>66</v>
+      </c>
+      <c r="F120">
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="G120">
+        <v>24.333333333333339</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>39</v>
+      </c>
+      <c r="B121" s="21">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>51</v>
+      </c>
+      <c r="D121">
+        <v>3</v>
+      </c>
+      <c r="E121">
+        <v>63</v>
+      </c>
+      <c r="F121">
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="G121">
+        <v>24.333333333333339</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>39</v>
+      </c>
+      <c r="B122" s="21">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>14</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122">
+        <v>37</v>
+      </c>
+      <c r="F122">
+        <v>4.1095890410958902E-2</v>
+      </c>
+      <c r="G122">
+        <v>24.333333333333339</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>39</v>
+      </c>
+      <c r="B123" s="21">
+        <v>2</v>
+      </c>
+      <c r="C123" t="s">
+        <v>92</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123">
+        <v>167</v>
+      </c>
+      <c r="F123">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="G123">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>39</v>
+      </c>
+      <c r="B124" s="21">
+        <v>2</v>
+      </c>
+      <c r="C124" t="s">
+        <v>24</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
+      </c>
+      <c r="E124">
+        <v>112</v>
+      </c>
+      <c r="F124">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="G124">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>39</v>
+      </c>
+      <c r="B125" s="21">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>28</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125">
+        <v>106</v>
+      </c>
+      <c r="F125">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G125">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>39</v>
+      </c>
+      <c r="B126" s="21">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>32</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126">
+        <v>22</v>
+      </c>
+      <c r="F126">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G126">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>39</v>
+      </c>
+      <c r="B127" s="21">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>29</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127">
+        <v>10</v>
+      </c>
+      <c r="F127">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G127">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>39</v>
+      </c>
+      <c r="B128" s="21">
+        <v>2</v>
+      </c>
+      <c r="C128" t="s">
+        <v>31</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128">
+        <v>10</v>
+      </c>
+      <c r="F128">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G128">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A129" t="s">
+        <v>39</v>
+      </c>
+      <c r="B129" s="21">
+        <v>2</v>
+      </c>
+      <c r="C129" t="s">
+        <v>71</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129">
+        <v>10</v>
+      </c>
+      <c r="F129">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G129">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A130" t="s">
+        <v>39</v>
+      </c>
+      <c r="B130" s="10">
+        <v>3</v>
+      </c>
+      <c r="C130" t="s">
+        <v>6</v>
+      </c>
+      <c r="D130">
+        <v>33</v>
+      </c>
+      <c r="E130">
+        <v>2339</v>
+      </c>
+      <c r="F130">
+        <v>0.45205479452054792</v>
+      </c>
+      <c r="G130">
+        <v>2.2121212121212119</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A131" t="s">
+        <v>39</v>
+      </c>
+      <c r="B131" s="10">
+        <v>3</v>
+      </c>
+      <c r="C131" t="s">
+        <v>46</v>
+      </c>
+      <c r="D131">
+        <v>12</v>
+      </c>
+      <c r="E131">
+        <v>695</v>
+      </c>
+      <c r="F131">
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="G131">
+        <v>6.0833333333333339</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>39</v>
+      </c>
+      <c r="B132" s="10">
+        <v>3</v>
+      </c>
+      <c r="C132" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132">
+        <v>8</v>
+      </c>
+      <c r="E132">
+        <v>300</v>
+      </c>
+      <c r="F132">
+        <v>0.1095890410958904</v>
+      </c>
+      <c r="G132">
+        <v>9.125</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A133" t="s">
+        <v>39</v>
+      </c>
+      <c r="B133" s="10">
+        <v>3</v>
+      </c>
+      <c r="C133" t="s">
+        <v>17</v>
+      </c>
+      <c r="D133">
+        <v>7</v>
+      </c>
+      <c r="E133">
+        <v>122</v>
+      </c>
+      <c r="F133">
+        <v>9.5890410958904104E-2</v>
+      </c>
+      <c r="G133">
+        <v>10.428571428571431</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A134" t="s">
+        <v>39</v>
+      </c>
+      <c r="B134" s="10">
+        <v>3</v>
+      </c>
+      <c r="C134" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134">
+        <v>165</v>
+      </c>
+      <c r="F134">
+        <v>6.8493150684931503E-2</v>
+      </c>
+      <c r="G134">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A135" t="s">
+        <v>39</v>
+      </c>
+      <c r="B135" s="10">
+        <v>3</v>
+      </c>
+      <c r="C135" t="s">
+        <v>102</v>
+      </c>
+      <c r="D135">
+        <v>2</v>
+      </c>
+      <c r="E135">
+        <v>72</v>
+      </c>
+      <c r="F135">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="G135">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A136" t="s">
+        <v>39</v>
+      </c>
+      <c r="B136" s="10">
+        <v>3</v>
+      </c>
+      <c r="C136" t="s">
+        <v>43</v>
+      </c>
+      <c r="D136">
+        <v>2</v>
+      </c>
+      <c r="E136">
+        <v>33</v>
+      </c>
+      <c r="F136">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="G136">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A137" t="s">
+        <v>39</v>
+      </c>
+      <c r="B137" s="10">
+        <v>3</v>
+      </c>
+      <c r="C137" t="s">
+        <v>28</v>
+      </c>
+      <c r="D137">
+        <v>2</v>
+      </c>
+      <c r="E137">
+        <v>23</v>
+      </c>
+      <c r="F137">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="G137">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A138" t="s">
+        <v>39</v>
+      </c>
+      <c r="B138" s="10">
+        <v>3</v>
+      </c>
+      <c r="C138" t="s">
+        <v>103</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138">
+        <v>18</v>
+      </c>
+      <c r="F138">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G138">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A139" t="s">
+        <v>39</v>
+      </c>
+      <c r="B139" s="10">
+        <v>3</v>
+      </c>
+      <c r="C139" t="s">
+        <v>12</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139">
+        <v>15</v>
+      </c>
+      <c r="F139">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G139">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A140" t="s">
+        <v>39</v>
+      </c>
+      <c r="B140" s="10">
+        <v>3</v>
+      </c>
+      <c r="C140" t="s">
+        <v>53</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140">
+        <v>11</v>
+      </c>
+      <c r="F140">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G140">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A141" t="s">
+        <v>39</v>
+      </c>
+      <c r="B141" s="11">
+        <v>4</v>
+      </c>
+      <c r="C141" t="s">
+        <v>6</v>
+      </c>
+      <c r="D141">
+        <v>22</v>
+      </c>
+      <c r="E141">
+        <v>1512</v>
+      </c>
+      <c r="F141">
+        <v>0.29729729729729731</v>
+      </c>
+      <c r="G141">
+        <v>3.3636363636363629</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A142" t="s">
+        <v>39</v>
+      </c>
+      <c r="B142" s="11">
+        <v>4</v>
+      </c>
+      <c r="C142" t="s">
+        <v>21</v>
+      </c>
+      <c r="D142">
+        <v>8</v>
+      </c>
+      <c r="E142">
+        <v>884</v>
+      </c>
+      <c r="F142">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="G142">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A143" t="s">
+        <v>39</v>
+      </c>
+      <c r="B143" s="11">
+        <v>4</v>
+      </c>
+      <c r="C143" t="s">
+        <v>80</v>
+      </c>
+      <c r="D143">
+        <v>8</v>
+      </c>
+      <c r="E143">
+        <v>328</v>
+      </c>
+      <c r="F143">
+        <v>0.1081081081081081</v>
+      </c>
+      <c r="G143">
+        <v>9.25</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A144" t="s">
+        <v>39</v>
+      </c>
+      <c r="B144" s="11">
+        <v>4</v>
+      </c>
+      <c r="C144" t="s">
+        <v>44</v>
+      </c>
+      <c r="D144">
+        <v>7</v>
+      </c>
+      <c r="E144">
+        <v>240</v>
+      </c>
+      <c r="F144">
+        <v>9.45945945945946E-2</v>
+      </c>
+      <c r="G144">
+        <v>10.571428571428569</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A145" t="s">
+        <v>39</v>
+      </c>
+      <c r="B145" s="11">
+        <v>4</v>
+      </c>
+      <c r="C145" t="s">
+        <v>17</v>
+      </c>
+      <c r="D145">
+        <v>5</v>
+      </c>
+      <c r="E145">
+        <v>158</v>
+      </c>
+      <c r="F145">
+        <v>6.7567567567567571E-2</v>
+      </c>
+      <c r="G145">
+        <v>14.8</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A146" t="s">
+        <v>39</v>
+      </c>
+      <c r="B146" s="11">
+        <v>4</v>
+      </c>
+      <c r="C146" t="s">
+        <v>85</v>
+      </c>
+      <c r="D146">
+        <v>4</v>
+      </c>
+      <c r="E146">
+        <v>267</v>
+      </c>
+      <c r="F146">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="G146">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>39</v>
+      </c>
+      <c r="B147" s="11">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147">
+        <v>4</v>
+      </c>
+      <c r="E147">
+        <v>173</v>
+      </c>
+      <c r="F147">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="G147">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>39</v>
+      </c>
+      <c r="B148" s="11">
+        <v>4</v>
+      </c>
+      <c r="C148" t="s">
+        <v>81</v>
+      </c>
+      <c r="D148">
+        <v>4</v>
+      </c>
+      <c r="E148">
+        <v>102</v>
+      </c>
+      <c r="F148">
+        <v>5.4054054054054057E-2</v>
+      </c>
+      <c r="G148">
+        <v>18.5</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>39</v>
+      </c>
+      <c r="B149" s="11">
+        <v>4</v>
+      </c>
+      <c r="C149" t="s">
+        <v>83</v>
+      </c>
+      <c r="D149">
+        <v>3</v>
+      </c>
+      <c r="E149">
+        <v>221</v>
+      </c>
+      <c r="F149">
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="G149">
+        <v>24.666666666666661</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" s="11">
+        <v>4</v>
+      </c>
+      <c r="C150" t="s">
+        <v>20</v>
+      </c>
+      <c r="D150">
+        <v>3</v>
+      </c>
+      <c r="E150">
+        <v>61</v>
+      </c>
+      <c r="F150">
+        <v>4.0540540540540543E-2</v>
+      </c>
+      <c r="G150">
+        <v>24.666666666666661</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>39</v>
+      </c>
+      <c r="B151" s="11">
+        <v>4</v>
+      </c>
+      <c r="C151" t="s">
+        <v>46</v>
+      </c>
+      <c r="D151">
+        <v>2</v>
+      </c>
+      <c r="E151">
+        <v>89</v>
+      </c>
+      <c r="F151">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="G151">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B152" s="11">
+        <v>4</v>
+      </c>
+      <c r="C152" t="s">
+        <v>63</v>
+      </c>
+      <c r="D152">
+        <v>2</v>
+      </c>
+      <c r="E152">
+        <v>41</v>
+      </c>
+      <c r="F152">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="G152">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>39</v>
+      </c>
+      <c r="B153" s="11">
+        <v>4</v>
+      </c>
+      <c r="C153" t="s">
+        <v>53</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+      <c r="E153">
+        <v>40</v>
+      </c>
+      <c r="F153">
+        <v>2.7027027027027029E-2</v>
+      </c>
+      <c r="G153">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>39</v>
+      </c>
+      <c r="B154" s="11">
+        <v>4</v>
+      </c>
+      <c r="C154" t="s">
+        <v>22</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154">
+        <v>209</v>
+      </c>
+      <c r="F154">
+        <v>1.3513513513513511E-2</v>
+      </c>
+      <c r="G154">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>39</v>
+      </c>
+      <c r="B155" s="11">
+        <v>4</v>
+      </c>
+      <c r="C155" t="s">
+        <v>55</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155">
+        <v>96</v>
+      </c>
+      <c r="F155">
+        <v>1.3513513513513511E-2</v>
+      </c>
+      <c r="G155">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>39</v>
+      </c>
+      <c r="B156" s="11">
+        <v>4</v>
+      </c>
+      <c r="C156" t="s">
+        <v>105</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156">
+        <v>71</v>
+      </c>
+      <c r="F156">
+        <v>1.3513513513513511E-2</v>
+      </c>
+      <c r="G156">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>39</v>
+      </c>
+      <c r="B157" s="11">
+        <v>4</v>
+      </c>
+      <c r="C157" t="s">
+        <v>82</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157">
+        <v>43</v>
+      </c>
+      <c r="F157">
+        <v>1.3513513513513511E-2</v>
+      </c>
+      <c r="G157">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>39</v>
+      </c>
+      <c r="B158" s="12">
+        <v>6</v>
+      </c>
+      <c r="C158" t="s">
+        <v>88</v>
+      </c>
+      <c r="D158">
+        <v>31</v>
+      </c>
+      <c r="E158">
+        <v>800</v>
+      </c>
+      <c r="F158">
+        <v>0.42465753424657532</v>
+      </c>
+      <c r="G158">
+        <v>2.354838709677419</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>39</v>
+      </c>
+      <c r="B159" s="12">
+        <v>6</v>
+      </c>
+      <c r="C159" t="s">
+        <v>6</v>
+      </c>
+      <c r="D159">
+        <v>20</v>
+      </c>
+      <c r="E159">
+        <v>1360</v>
+      </c>
+      <c r="F159">
+        <v>0.27397260273972601</v>
+      </c>
+      <c r="G159">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>39</v>
+      </c>
+      <c r="B160" s="12">
+        <v>6</v>
+      </c>
+      <c r="C160" t="s">
+        <v>48</v>
+      </c>
+      <c r="D160">
+        <v>13</v>
+      </c>
+      <c r="E160">
+        <v>441</v>
+      </c>
+      <c r="F160">
+        <v>0.17808219178082191</v>
+      </c>
+      <c r="G160">
+        <v>5.6153846153846159</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>39</v>
+      </c>
+      <c r="B161" s="12">
+        <v>6</v>
+      </c>
+      <c r="C161" t="s">
+        <v>91</v>
+      </c>
+      <c r="D161">
+        <v>12</v>
+      </c>
+      <c r="E161">
+        <v>451</v>
+      </c>
+      <c r="F161">
+        <v>0.16438356164383561</v>
+      </c>
+      <c r="G161">
+        <v>6.0833333333333339</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>39</v>
+      </c>
+      <c r="B162" s="12">
+        <v>6</v>
+      </c>
+      <c r="C162" t="s">
+        <v>107</v>
+      </c>
+      <c r="D162">
+        <v>6</v>
+      </c>
+      <c r="E162">
+        <v>398</v>
+      </c>
+      <c r="F162">
+        <v>8.2191780821917804E-2</v>
+      </c>
+      <c r="G162">
+        <v>12.16666666666667</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>39</v>
+      </c>
+      <c r="B163" s="12">
+        <v>6</v>
+      </c>
+      <c r="C163" t="s">
+        <v>17</v>
+      </c>
+      <c r="D163">
+        <v>4</v>
+      </c>
+      <c r="E163">
+        <v>345</v>
+      </c>
+      <c r="F163">
+        <v>5.4794520547945202E-2</v>
+      </c>
+      <c r="G163">
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>39</v>
+      </c>
+      <c r="B164" s="12">
+        <v>6</v>
+      </c>
+      <c r="C164" t="s">
+        <v>20</v>
+      </c>
+      <c r="D164">
+        <v>2</v>
+      </c>
+      <c r="E164">
+        <v>95</v>
+      </c>
+      <c r="F164">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="G164">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>39</v>
+      </c>
+      <c r="B165" s="12">
+        <v>6</v>
+      </c>
+      <c r="C165" t="s">
+        <v>71</v>
+      </c>
+      <c r="D165">
+        <v>2</v>
+      </c>
+      <c r="E165">
+        <v>47</v>
+      </c>
+      <c r="F165">
+        <v>2.7397260273972601E-2</v>
+      </c>
+      <c r="G165">
+        <v>36.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>39</v>
+      </c>
+      <c r="B166" s="12">
+        <v>6</v>
+      </c>
+      <c r="C166" t="s">
+        <v>108</v>
+      </c>
+      <c r="D166">
+        <v>1</v>
+      </c>
+      <c r="E166">
+        <v>35</v>
+      </c>
+      <c r="F166">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G166">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>39</v>
+      </c>
+      <c r="B167" s="12">
+        <v>6</v>
+      </c>
+      <c r="C167" t="s">
+        <v>22</v>
+      </c>
+      <c r="D167">
+        <v>1</v>
+      </c>
+      <c r="E167">
+        <v>30</v>
+      </c>
+      <c r="F167">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G167">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>39</v>
+      </c>
+      <c r="B168" s="12">
+        <v>6</v>
+      </c>
+      <c r="C168" t="s">
+        <v>21</v>
+      </c>
+      <c r="D168">
+        <v>1</v>
+      </c>
+      <c r="E168">
+        <v>16</v>
+      </c>
+      <c r="F168">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G168">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>39</v>
+      </c>
+      <c r="B169" s="12">
+        <v>6</v>
+      </c>
+      <c r="C169" t="s">
+        <v>12</v>
+      </c>
+      <c r="D169">
+        <v>1</v>
+      </c>
+      <c r="E169">
+        <v>13</v>
+      </c>
+      <c r="F169">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G169">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>39</v>
+      </c>
+      <c r="B170" s="12">
+        <v>6</v>
+      </c>
+      <c r="C170" t="s">
+        <v>14</v>
+      </c>
+      <c r="D170">
+        <v>1</v>
+      </c>
+      <c r="E170">
+        <v>12</v>
+      </c>
+      <c r="F170">
+        <v>1.3698630136986301E-2</v>
+      </c>
+      <c r="G170">
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/Analisi_trimestrale.xlsx
+++ b/Analisi_trimestrale.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Utente\Documents\GitHub\Manutenzione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46696863-ED7F-48B4-AF79-1F28D824024F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4EF395-0820-4DA1-BB97-72AC391202FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B31A7043-A28F-428C-9880-F98EDD055E1F}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="110">
   <si>
     <t>Data fermi</t>
   </si>
@@ -377,6 +377,9 @@
   <si>
     <t>BUFFER GRUPPI</t>
   </si>
+  <si>
+    <t>SENSORE/TUBO ARIA COMPRESSA</t>
+  </si>
 </sst>
 </file>
 
@@ -443,18 +446,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -606,7 +603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -620,12 +617,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -634,13 +631,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -648,6 +644,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -658,13 +660,7 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -7190,40 +7186,40 @@
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N24" sqref="N24"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" customWidth="1"/>
+    <col min="3" max="3" width="29.5546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="9" max="9" width="15.5546875" customWidth="1"/>
-    <col min="10" max="10" width="21.88671875" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" customWidth="1"/>
-    <col min="12" max="12" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" customWidth="1"/>
+    <col min="7" max="7" width="21.88671875" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+    <col min="9" max="9" width="13.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:10" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="A1" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="I1" s="26" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="F1" s="25" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-    </row>
-    <row r="2" spans="1:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+    </row>
+    <row r="2" spans="1:10" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>41</v>
       </c>
@@ -7239,23 +7235,23 @@
       <c r="E2" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="F2" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="I2" s="9" t="s">
-        <v>41</v>
+        <v>10</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="9" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="28">
         <v>1</v>
       </c>
@@ -7265,23 +7261,23 @@
       <c r="C3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="24">
-        <v>1.8</v>
-      </c>
-      <c r="I3" s="32">
+      <c r="D3" s="32">
+        <v>1.9</v>
+      </c>
+      <c r="F3" s="27">
         <v>1</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="H3" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="15">
+      <c r="I3" s="15">
         <v>2.4</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="28"/>
       <c r="B4" s="16" t="s">
         <v>6</v>
@@ -7292,40 +7288,40 @@
       <c r="D4" s="17">
         <v>4.4000000000000004</v>
       </c>
-      <c r="I4" s="32"/>
-      <c r="J4" s="16" t="s">
+      <c r="F4" s="27"/>
+      <c r="G4" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="33" t="s">
+      <c r="H4" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="17">
+      <c r="I4" s="17">
         <v>10.6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="28"/>
       <c r="B5" s="18" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="D5" s="20">
-        <v>14.7</v>
-      </c>
-      <c r="I5" s="32"/>
-      <c r="J5" s="18" t="s">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="H5" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="20">
+      <c r="I5" s="20">
         <v>12.3</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="29">
         <v>2</v>
       </c>
@@ -7338,20 +7334,20 @@
       <c r="D7" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="I7" s="29">
+      <c r="F7" s="29">
         <v>2</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="H7" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="15">
+      <c r="I7" s="15">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="29"/>
       <c r="B8" s="16" t="s">
         <v>12</v>
@@ -7362,18 +7358,18 @@
       <c r="D8" s="17">
         <v>5</v>
       </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="16" t="s">
+      <c r="F8" s="29"/>
+      <c r="G8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K8" s="33" t="s">
+      <c r="H8" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="17">
+      <c r="I8" s="17">
         <v>8.1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="29"/>
       <c r="B9" s="18" t="s">
         <v>12</v>
@@ -7384,18 +7380,18 @@
       <c r="D9" s="20">
         <v>9.5</v>
       </c>
-      <c r="I9" s="29"/>
-      <c r="J9" s="18" t="s">
+      <c r="F9" s="29"/>
+      <c r="G9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="H9" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="20">
+      <c r="I9" s="20">
         <v>18.25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="29">
         <v>2</v>
       </c>
@@ -7408,20 +7404,20 @@
       <c r="D11" s="15">
         <v>2.6</v>
       </c>
-      <c r="I11" s="29">
+      <c r="F11" s="29">
         <v>2</v>
       </c>
-      <c r="J11" s="13" t="s">
+      <c r="G11" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="K11" s="14" t="s">
+      <c r="H11" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L11" s="15">
+      <c r="I11" s="15">
         <v>3.65</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="29"/>
       <c r="B12" s="16" t="s">
         <v>6</v>
@@ -7432,18 +7428,18 @@
       <c r="D12" s="17">
         <v>7.2</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="16" t="s">
+      <c r="F12" s="29"/>
+      <c r="G12" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="K12" s="33" t="s">
+      <c r="H12" t="s">
         <v>74</v>
       </c>
-      <c r="L12" s="17">
+      <c r="I12" s="17">
         <v>10.4</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="29"/>
       <c r="B13" s="18" t="s">
         <v>6</v>
@@ -7454,21 +7450,21 @@
       <c r="D13" s="20">
         <v>28.6</v>
       </c>
-      <c r="I13" s="29"/>
-      <c r="J13" s="18" t="s">
+      <c r="F13" s="29"/>
+      <c r="G13" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="K13" s="19" t="s">
+      <c r="H13" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="L13" s="20">
+      <c r="I13" s="20">
         <v>24.3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B14" s="7"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="30">
         <v>3</v>
       </c>
@@ -7481,20 +7477,20 @@
       <c r="D15" s="15">
         <v>1.9</v>
       </c>
-      <c r="I15" s="30">
+      <c r="F15" s="30">
         <v>3</v>
       </c>
-      <c r="J15" s="13" t="s">
+      <c r="G15" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K15" s="14" t="s">
+      <c r="H15" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L15" s="15">
+      <c r="I15" s="15">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="30"/>
       <c r="B16" s="16" t="s">
         <v>6</v>
@@ -7505,18 +7501,18 @@
       <c r="D16" s="17">
         <v>3.6</v>
       </c>
-      <c r="I16" s="30"/>
-      <c r="J16" s="16" t="s">
+      <c r="F16" s="30"/>
+      <c r="G16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K16" s="33" t="s">
+      <c r="H16" t="s">
         <v>73</v>
       </c>
-      <c r="L16" s="17">
+      <c r="I16" s="17">
         <v>3.3</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="30"/>
       <c r="B17" s="18" t="s">
         <v>6</v>
@@ -7527,18 +7523,18 @@
       <c r="D17" s="20">
         <v>20</v>
       </c>
-      <c r="I17" s="30"/>
-      <c r="J17" s="18" t="s">
+      <c r="F17" s="30"/>
+      <c r="G17" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K17" s="19" t="s">
+      <c r="H17" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="L17" s="20">
+      <c r="I17" s="20">
         <v>36.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>4</v>
       </c>
@@ -7551,20 +7547,20 @@
       <c r="D19" s="15">
         <v>2.8</v>
       </c>
-      <c r="I19" s="31">
+      <c r="F19" s="31">
         <v>4</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="G19" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="K19" s="14" t="s">
+      <c r="H19" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L19" s="15">
+      <c r="I19" s="15">
         <v>3.3</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="31"/>
       <c r="B20" s="16" t="s">
         <v>6</v>
@@ -7575,18 +7571,18 @@
       <c r="D20" s="17">
         <v>4.0999999999999996</v>
       </c>
-      <c r="I20" s="31"/>
-      <c r="J20" s="16" t="s">
+      <c r="F20" s="31"/>
+      <c r="G20" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K20" s="33" t="s">
+      <c r="H20" t="s">
         <v>87</v>
       </c>
-      <c r="L20" s="17">
+      <c r="I20" s="17">
         <v>7.4</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="31"/>
       <c r="B21" s="18" t="s">
         <v>6</v>
@@ -7597,19 +7593,19 @@
       <c r="D21" s="20">
         <v>26.3</v>
       </c>
-      <c r="I21" s="31"/>
-      <c r="J21" s="18" t="s">
+      <c r="F21" s="31"/>
+      <c r="G21" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="K21" s="19" t="s">
+      <c r="H21" s="19" t="s">
         <v>106</v>
       </c>
-      <c r="L21" s="20">
+      <c r="I21" s="20">
         <v>24.6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A23" s="25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A23" s="24">
         <v>6</v>
       </c>
       <c r="B23" s="13" t="s">
@@ -7621,21 +7617,21 @@
       <c r="D23" s="15">
         <v>2.2999999999999998</v>
       </c>
-      <c r="I23" s="25">
+      <c r="F23" s="24">
         <v>6</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="G23" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="K23" s="14" t="s">
+      <c r="H23" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="15">
+      <c r="I23" s="15">
         <v>2.35</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A24" s="24"/>
       <c r="B24" s="16" t="s">
         <v>88</v>
       </c>
@@ -7645,19 +7641,19 @@
       <c r="D24" s="17">
         <v>4</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="16" t="s">
+      <c r="F24" s="24"/>
+      <c r="G24" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="K24" s="33" t="s">
+      <c r="H24" t="s">
         <v>98</v>
       </c>
-      <c r="L24" s="17">
+      <c r="I24" s="17">
         <v>5.2</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A25" s="25"/>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A25" s="24"/>
       <c r="B25" s="18" t="s">
         <v>88</v>
       </c>
@@ -7667,14 +7663,14 @@
       <c r="D25" s="20">
         <v>8</v>
       </c>
-      <c r="I25" s="25"/>
-      <c r="J25" s="18" t="s">
+      <c r="F25" s="24"/>
+      <c r="G25" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="K25" s="19" t="s">
+      <c r="H25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="L25" s="20">
+      <c r="I25" s="20">
         <v>6.6</v>
       </c>
     </row>
@@ -7682,18 +7678,18 @@
   <mergeCells count="14">
     <mergeCell ref="A23:A25"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="I1:M1"/>
-    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="F1:J1"/>
+    <mergeCell ref="F3:F5"/>
     <mergeCell ref="A3:A5"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A11:A13"/>
     <mergeCell ref="A15:A17"/>
     <mergeCell ref="A19:A21"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="I11:I13"/>
-    <mergeCell ref="I15:I17"/>
-    <mergeCell ref="I19:I21"/>
-    <mergeCell ref="I23:I25"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="F15:F17"/>
+    <mergeCell ref="F19:F21"/>
+    <mergeCell ref="F23:F25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -7707,8 +7703,8 @@
   </sheetPr>
   <dimension ref="A1:H170"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="G158" sqref="G158"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
